--- a/results/mp/deberta/corona/confidence/84/stop-words-topk-desired-masking-0.2/root_scores.xlsx
+++ b/results/mp/deberta/corona/confidence/84/stop-words-topk-desired-masking-0.2/root_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1057" uniqueCount="901">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1055" uniqueCount="901">
   <si>
     <t>anchor score</t>
   </si>
@@ -82,745 +82,745 @@
     <t>recession</t>
   </si>
   <si>
+    <t>wrong</t>
+  </si>
+  <si>
+    <t>arrested</t>
+  </si>
+  <si>
+    <t>debt</t>
+  </si>
+  <si>
+    <t>struggling</t>
+  </si>
+  <si>
+    <t>poor</t>
+  </si>
+  <si>
+    <t>stress</t>
+  </si>
+  <si>
+    <t>killed</t>
+  </si>
+  <si>
+    <t>avoid</t>
+  </si>
+  <si>
+    <t>online</t>
+  </si>
+  <si>
+    <t>help</t>
+  </si>
+  <si>
+    <t>blame</t>
+  </si>
+  <si>
+    <t>chaos</t>
+  </si>
+  <si>
+    <t>death</t>
+  </si>
+  <si>
+    <t>cause</t>
+  </si>
+  <si>
+    <t>shock</t>
+  </si>
+  <si>
+    <t>threat</t>
+  </si>
+  <si>
+    <t>grocery</t>
+  </si>
+  <si>
+    <t>struggle</t>
+  </si>
+  <si>
+    <t>disruption</t>
+  </si>
+  <si>
+    <t>shopping</t>
+  </si>
+  <si>
+    <t>consumer</t>
+  </si>
+  <si>
+    <t>store</t>
+  </si>
+  <si>
+    <t>losses</t>
+  </si>
+  <si>
+    <t>accused</t>
+  </si>
+  <si>
+    <t>suffering</t>
+  </si>
+  <si>
+    <t>illegal</t>
+  </si>
+  <si>
+    <t>fight</t>
+  </si>
+  <si>
+    <t>dangerous</t>
+  </si>
+  <si>
+    <t>waste</t>
+  </si>
+  <si>
+    <t>madness</t>
+  </si>
+  <si>
+    <t>dead</t>
+  </si>
+  <si>
+    <t>crime</t>
+  </si>
+  <si>
+    <t>evil</t>
+  </si>
+  <si>
+    <t>crude</t>
+  </si>
+  <si>
+    <t>unemployment</t>
+  </si>
+  <si>
+    <t>fake</t>
+  </si>
+  <si>
+    <t>kills</t>
+  </si>
+  <si>
+    <t>support</t>
+  </si>
+  <si>
+    <t>hand</t>
+  </si>
+  <si>
+    <t>supermarket</t>
+  </si>
+  <si>
+    <t>fears</t>
+  </si>
+  <si>
+    <t>collapse</t>
+  </si>
+  <si>
+    <t>new</t>
+  </si>
+  <si>
+    <t>amp</t>
+  </si>
+  <si>
+    <t>stock</t>
+  </si>
+  <si>
+    <t>worry</t>
+  </si>
+  <si>
+    <t>worst</t>
+  </si>
+  <si>
+    <t>warns</t>
+  </si>
+  <si>
+    <t>attack</t>
+  </si>
+  <si>
+    <t>shame</t>
+  </si>
+  <si>
+    <t>difficult</t>
+  </si>
+  <si>
+    <t>also</t>
+  </si>
+  <si>
+    <t>well</t>
+  </si>
+  <si>
+    <t>desperate</t>
+  </si>
+  <si>
+    <t>uncertainty</t>
+  </si>
+  <si>
+    <t>war</t>
+  </si>
+  <si>
+    <t>risks</t>
+  </si>
+  <si>
+    <t>infected</t>
+  </si>
+  <si>
+    <t>vulnerable</t>
+  </si>
+  <si>
+    <t>banned</t>
+  </si>
+  <si>
+    <t>affected</t>
+  </si>
+  <si>
+    <t>problem</t>
+  </si>
+  <si>
+    <t>share</t>
+  </si>
+  <si>
+    <t>prices</t>
+  </si>
+  <si>
+    <t>see</t>
+  </si>
+  <si>
+    <t>care</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
+    <t>read</t>
+  </si>
+  <si>
+    <t>shop</t>
+  </si>
+  <si>
+    <t>critical</t>
+  </si>
+  <si>
+    <t>demand</t>
+  </si>
+  <si>
+    <t>loss</t>
+  </si>
+  <si>
+    <t>crash</t>
+  </si>
+  <si>
+    <t>confused</t>
+  </si>
+  <si>
+    <t>awful</t>
+  </si>
+  <si>
+    <t>scare</t>
+  </si>
+  <si>
+    <t>bastards</t>
+  </si>
+  <si>
+    <t>killing</t>
+  </si>
+  <si>
+    <t>corona</t>
+  </si>
+  <si>
+    <t>health</t>
+  </si>
+  <si>
+    <t>check</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>great</t>
+  </si>
+  <si>
+    <t>free</t>
+  </si>
+  <si>
+    <t>low</t>
+  </si>
+  <si>
+    <t>symptoms</t>
+  </si>
+  <si>
+    <t>worse</t>
+  </si>
+  <si>
+    <t>depression</t>
+  </si>
+  <si>
+    <t>failure</t>
+  </si>
+  <si>
+    <t>stop</t>
+  </si>
+  <si>
+    <t>misleading</t>
+  </si>
+  <si>
+    <t>horrible</t>
+  </si>
+  <si>
+    <t>warned</t>
+  </si>
+  <si>
+    <t>hurt</t>
+  </si>
+  <si>
+    <t>fuck</t>
+  </si>
+  <si>
+    <t>losing</t>
+  </si>
+  <si>
+    <t>house</t>
+  </si>
+  <si>
+    <t>stay</t>
+  </si>
+  <si>
+    <t>wind</t>
+  </si>
+  <si>
+    <t>go</t>
+  </si>
+  <si>
+    <t>nice</t>
+  </si>
+  <si>
+    <t>get</t>
+  </si>
+  <si>
+    <t>stores</t>
+  </si>
+  <si>
+    <t>essential</t>
+  </si>
+  <si>
+    <t>retail</t>
+  </si>
+  <si>
+    <t>hope</t>
+  </si>
+  <si>
+    <t>buy</t>
+  </si>
+  <si>
+    <t>toilet</t>
+  </si>
+  <si>
+    <t>delivery</t>
+  </si>
+  <si>
+    <t>credit</t>
+  </si>
+  <si>
+    <t>live</t>
+  </si>
+  <si>
+    <t>staff</t>
+  </si>
+  <si>
+    <t>data</t>
+  </si>
+  <si>
+    <t>us</t>
+  </si>
+  <si>
+    <t>feel</t>
+  </si>
+  <si>
+    <t>face</t>
+  </si>
+  <si>
+    <t>local</t>
+  </si>
+  <si>
+    <t>uk</t>
+  </si>
+  <si>
+    <t>san</t>
+  </si>
+  <si>
+    <t>everything</t>
+  </si>
+  <si>
+    <t>food</t>
+  </si>
+  <si>
+    <t>market</t>
+  </si>
+  <si>
+    <t>via</t>
+  </si>
+  <si>
+    <t>life</t>
+  </si>
+  <si>
+    <t>know</t>
+  </si>
+  <si>
+    <t>thanks</t>
+  </si>
+  <si>
+    <t>look</t>
+  </si>
+  <si>
+    <t>ia</t>
+  </si>
+  <si>
+    <t>home</t>
+  </si>
+  <si>
+    <t>slash</t>
+  </si>
+  <si>
+    <t>threatening</t>
+  </si>
+  <si>
+    <t>sc</t>
+  </si>
+  <si>
+    <t>people</t>
+  </si>
+  <si>
+    <t>fucking</t>
+  </si>
+  <si>
+    <t>threats</t>
+  </si>
+  <si>
+    <t>outbreak</t>
+  </si>
+  <si>
+    <t>stupid</t>
+  </si>
+  <si>
+    <t>milk</t>
+  </si>
+  <si>
+    <t>000</t>
+  </si>
+  <si>
+    <t>means</t>
+  </si>
+  <si>
+    <t>deliver</t>
+  </si>
+  <si>
+    <t>cure</t>
+  </si>
+  <si>
+    <t>inflated</t>
+  </si>
+  <si>
+    <t>easy</t>
+  </si>
+  <si>
+    <t>eco</t>
+  </si>
+  <si>
+    <t>friendly</t>
+  </si>
+  <si>
+    <t>profits</t>
+  </si>
+  <si>
+    <t>congress</t>
+  </si>
+  <si>
+    <t>rolls</t>
+  </si>
+  <si>
+    <t>volunteers</t>
+  </si>
+  <si>
+    <t>volunteer</t>
+  </si>
+  <si>
+    <t>feels</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>course</t>
+  </si>
+  <si>
+    <t>w</t>
+  </si>
+  <si>
+    <t>trash</t>
+  </si>
+  <si>
+    <t>story</t>
+  </si>
+  <si>
+    <t>tests</t>
+  </si>
+  <si>
+    <t>positive</t>
+  </si>
+  <si>
+    <t>trading</t>
+  </si>
+  <si>
+    <t>interesting</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>month</t>
+  </si>
+  <si>
+    <t>plan</t>
+  </si>
+  <si>
+    <t>eu</t>
+  </si>
+  <si>
+    <t>close</t>
+  </si>
+  <si>
+    <t>non</t>
+  </si>
+  <si>
+    <t>shift</t>
+  </si>
+  <si>
+    <t>national</t>
+  </si>
+  <si>
+    <t>healthcare</t>
+  </si>
+  <si>
+    <t>test</t>
+  </si>
+  <si>
+    <t>everyone</t>
+  </si>
+  <si>
+    <t>advantage</t>
+  </si>
+  <si>
+    <t>trends</t>
+  </si>
+  <si>
+    <t>rt</t>
+  </si>
+  <si>
+    <t>line</t>
+  </si>
+  <si>
+    <t>simple</t>
+  </si>
+  <si>
+    <t>solution</t>
+  </si>
+  <si>
+    <t>banks</t>
+  </si>
+  <si>
+    <t>full</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>protect</t>
+  </si>
+  <si>
+    <t>right</t>
+  </si>
+  <si>
+    <t>consider</t>
+  </si>
+  <si>
+    <t>buying</t>
+  </si>
+  <si>
+    <t>true</t>
+  </si>
+  <si>
+    <t>30</t>
+  </si>
+  <si>
+    <t>provide</t>
+  </si>
+  <si>
+    <t>daily</t>
+  </si>
+  <si>
+    <t>india</t>
+  </si>
+  <si>
+    <t>company</t>
+  </si>
+  <si>
+    <t>profit</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>security</t>
+  </si>
+  <si>
+    <t>much</t>
+  </si>
+  <si>
+    <t>relief</t>
+  </si>
+  <si>
+    <t>thank</t>
+  </si>
+  <si>
+    <t>fresh</t>
+  </si>
+  <si>
+    <t>making</t>
+  </si>
+  <si>
+    <t>e</t>
+  </si>
+  <si>
+    <t>come</t>
+  </si>
+  <si>
+    <t>confidence</t>
+  </si>
+  <si>
+    <t>increased</t>
+  </si>
+  <si>
+    <t>supply</t>
+  </si>
+  <si>
+    <t>others</t>
+  </si>
+  <si>
+    <t>want</t>
+  </si>
+  <si>
+    <t>got</t>
+  </si>
+  <si>
+    <t>money</t>
+  </si>
+  <si>
+    <t>markets</t>
+  </si>
+  <si>
+    <t>give</t>
+  </si>
+  <si>
+    <t>join</t>
+  </si>
+  <si>
+    <t>di</t>
+  </si>
+  <si>
+    <t>week</t>
+  </si>
+  <si>
+    <t>work</t>
+  </si>
+  <si>
+    <t>news</t>
+  </si>
+  <si>
+    <t>make</t>
+  </si>
+  <si>
+    <t>community</t>
+  </si>
+  <si>
+    <t>best</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>love</t>
+  </si>
+  <si>
+    <t>social</t>
+  </si>
+  <si>
+    <t>safe</t>
+  </si>
+  <si>
+    <t>email</t>
+  </si>
+  <si>
+    <t>shit</t>
+  </si>
+  <si>
+    <t>deadly</t>
+  </si>
+  <si>
+    <t>wasted</t>
+  </si>
+  <si>
+    <t>sorry</t>
+  </si>
+  <si>
+    <t>hell</t>
+  </si>
+  <si>
+    <t>insane</t>
+  </si>
+  <si>
+    <t>complaint</t>
+  </si>
+  <si>
+    <t>hardship</t>
+  </si>
+  <si>
+    <t>move</t>
+  </si>
+  <si>
+    <t>fast</t>
+  </si>
+  <si>
+    <t>today</t>
+  </si>
+  <si>
+    <t>ready</t>
+  </si>
+  <si>
+    <t>made</t>
+  </si>
+  <si>
+    <t>supermarkets</t>
+  </si>
+  <si>
+    <t>think</t>
+  </si>
+  <si>
+    <t>take</t>
+  </si>
+  <si>
+    <t>empty</t>
+  </si>
+  <si>
+    <t>damn</t>
+  </si>
+  <si>
+    <t>idiot</t>
+  </si>
+  <si>
+    <t>expose</t>
+  </si>
+  <si>
+    <t>cut</t>
+  </si>
+  <si>
+    <t>negative</t>
+  </si>
+  <si>
     <t>like</t>
   </si>
   <si>
-    <t>wrong</t>
-  </si>
-  <si>
-    <t>arrested</t>
-  </si>
-  <si>
-    <t>debt</t>
-  </si>
-  <si>
-    <t>struggling</t>
-  </si>
-  <si>
-    <t>poor</t>
-  </si>
-  <si>
-    <t>stress</t>
-  </si>
-  <si>
-    <t>killed</t>
-  </si>
-  <si>
-    <t>avoid</t>
-  </si>
-  <si>
-    <t>online</t>
-  </si>
-  <si>
-    <t>help</t>
-  </si>
-  <si>
-    <t>blame</t>
-  </si>
-  <si>
-    <t>chaos</t>
-  </si>
-  <si>
-    <t>death</t>
-  </si>
-  <si>
     <t>please</t>
-  </si>
-  <si>
-    <t>cause</t>
-  </si>
-  <si>
-    <t>shock</t>
-  </si>
-  <si>
-    <t>threat</t>
-  </si>
-  <si>
-    <t>grocery</t>
-  </si>
-  <si>
-    <t>struggle</t>
-  </si>
-  <si>
-    <t>disruption</t>
-  </si>
-  <si>
-    <t>shopping</t>
-  </si>
-  <si>
-    <t>consumer</t>
-  </si>
-  <si>
-    <t>store</t>
-  </si>
-  <si>
-    <t>losses</t>
-  </si>
-  <si>
-    <t>accused</t>
-  </si>
-  <si>
-    <t>suffering</t>
-  </si>
-  <si>
-    <t>illegal</t>
-  </si>
-  <si>
-    <t>fight</t>
-  </si>
-  <si>
-    <t>dangerous</t>
-  </si>
-  <si>
-    <t>waste</t>
-  </si>
-  <si>
-    <t>madness</t>
-  </si>
-  <si>
-    <t>dead</t>
-  </si>
-  <si>
-    <t>crime</t>
-  </si>
-  <si>
-    <t>evil</t>
-  </si>
-  <si>
-    <t>crude</t>
-  </si>
-  <si>
-    <t>unemployment</t>
-  </si>
-  <si>
-    <t>fake</t>
-  </si>
-  <si>
-    <t>kills</t>
-  </si>
-  <si>
-    <t>support</t>
-  </si>
-  <si>
-    <t>hand</t>
-  </si>
-  <si>
-    <t>supermarket</t>
-  </si>
-  <si>
-    <t>fears</t>
-  </si>
-  <si>
-    <t>collapse</t>
-  </si>
-  <si>
-    <t>new</t>
-  </si>
-  <si>
-    <t>amp</t>
-  </si>
-  <si>
-    <t>stock</t>
-  </si>
-  <si>
-    <t>worry</t>
-  </si>
-  <si>
-    <t>worst</t>
-  </si>
-  <si>
-    <t>warns</t>
-  </si>
-  <si>
-    <t>attack</t>
-  </si>
-  <si>
-    <t>shame</t>
-  </si>
-  <si>
-    <t>difficult</t>
-  </si>
-  <si>
-    <t>also</t>
-  </si>
-  <si>
-    <t>well</t>
-  </si>
-  <si>
-    <t>desperate</t>
-  </si>
-  <si>
-    <t>uncertainty</t>
-  </si>
-  <si>
-    <t>war</t>
-  </si>
-  <si>
-    <t>risks</t>
-  </si>
-  <si>
-    <t>infected</t>
-  </si>
-  <si>
-    <t>vulnerable</t>
-  </si>
-  <si>
-    <t>banned</t>
-  </si>
-  <si>
-    <t>affected</t>
-  </si>
-  <si>
-    <t>problem</t>
-  </si>
-  <si>
-    <t>share</t>
-  </si>
-  <si>
-    <t>prices</t>
-  </si>
-  <si>
-    <t>see</t>
-  </si>
-  <si>
-    <t>care</t>
-  </si>
-  <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>read</t>
-  </si>
-  <si>
-    <t>shop</t>
-  </si>
-  <si>
-    <t>critical</t>
-  </si>
-  <si>
-    <t>demand</t>
-  </si>
-  <si>
-    <t>loss</t>
-  </si>
-  <si>
-    <t>crash</t>
-  </si>
-  <si>
-    <t>confused</t>
-  </si>
-  <si>
-    <t>awful</t>
-  </si>
-  <si>
-    <t>scare</t>
-  </si>
-  <si>
-    <t>bastards</t>
-  </si>
-  <si>
-    <t>killing</t>
-  </si>
-  <si>
-    <t>corona</t>
-  </si>
-  <si>
-    <t>health</t>
-  </si>
-  <si>
-    <t>check</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>great</t>
-  </si>
-  <si>
-    <t>free</t>
-  </si>
-  <si>
-    <t>low</t>
-  </si>
-  <si>
-    <t>symptoms</t>
-  </si>
-  <si>
-    <t>worse</t>
-  </si>
-  <si>
-    <t>depression</t>
-  </si>
-  <si>
-    <t>failure</t>
-  </si>
-  <si>
-    <t>stop</t>
-  </si>
-  <si>
-    <t>misleading</t>
-  </si>
-  <si>
-    <t>horrible</t>
-  </si>
-  <si>
-    <t>warned</t>
-  </si>
-  <si>
-    <t>hurt</t>
-  </si>
-  <si>
-    <t>fuck</t>
-  </si>
-  <si>
-    <t>losing</t>
-  </si>
-  <si>
-    <t>house</t>
-  </si>
-  <si>
-    <t>stay</t>
-  </si>
-  <si>
-    <t>wind</t>
-  </si>
-  <si>
-    <t>go</t>
-  </si>
-  <si>
-    <t>nice</t>
-  </si>
-  <si>
-    <t>get</t>
-  </si>
-  <si>
-    <t>stores</t>
-  </si>
-  <si>
-    <t>essential</t>
-  </si>
-  <si>
-    <t>retail</t>
-  </si>
-  <si>
-    <t>hope</t>
-  </si>
-  <si>
-    <t>buy</t>
-  </si>
-  <si>
-    <t>toilet</t>
-  </si>
-  <si>
-    <t>delivery</t>
-  </si>
-  <si>
-    <t>credit</t>
-  </si>
-  <si>
-    <t>live</t>
-  </si>
-  <si>
-    <t>staff</t>
-  </si>
-  <si>
-    <t>data</t>
-  </si>
-  <si>
-    <t>us</t>
-  </si>
-  <si>
-    <t>feel</t>
-  </si>
-  <si>
-    <t>face</t>
-  </si>
-  <si>
-    <t>local</t>
-  </si>
-  <si>
-    <t>uk</t>
-  </si>
-  <si>
-    <t>san</t>
-  </si>
-  <si>
-    <t>everything</t>
-  </si>
-  <si>
-    <t>food</t>
-  </si>
-  <si>
-    <t>market</t>
-  </si>
-  <si>
-    <t>via</t>
-  </si>
-  <si>
-    <t>life</t>
-  </si>
-  <si>
-    <t>know</t>
-  </si>
-  <si>
-    <t>thanks</t>
-  </si>
-  <si>
-    <t>look</t>
-  </si>
-  <si>
-    <t>ia</t>
-  </si>
-  <si>
-    <t>home</t>
-  </si>
-  <si>
-    <t>slash</t>
-  </si>
-  <si>
-    <t>threatening</t>
-  </si>
-  <si>
-    <t>sc</t>
-  </si>
-  <si>
-    <t>people</t>
-  </si>
-  <si>
-    <t>fucking</t>
-  </si>
-  <si>
-    <t>threats</t>
-  </si>
-  <si>
-    <t>outbreak</t>
-  </si>
-  <si>
-    <t>stupid</t>
-  </si>
-  <si>
-    <t>milk</t>
-  </si>
-  <si>
-    <t>000</t>
-  </si>
-  <si>
-    <t>means</t>
-  </si>
-  <si>
-    <t>deliver</t>
-  </si>
-  <si>
-    <t>cure</t>
-  </si>
-  <si>
-    <t>inflated</t>
-  </si>
-  <si>
-    <t>easy</t>
-  </si>
-  <si>
-    <t>eco</t>
-  </si>
-  <si>
-    <t>friendly</t>
-  </si>
-  <si>
-    <t>profits</t>
-  </si>
-  <si>
-    <t>congress</t>
-  </si>
-  <si>
-    <t>rolls</t>
-  </si>
-  <si>
-    <t>volunteers</t>
-  </si>
-  <si>
-    <t>volunteer</t>
-  </si>
-  <si>
-    <t>feels</t>
-  </si>
-  <si>
-    <t>13</t>
-  </si>
-  <si>
-    <t>course</t>
-  </si>
-  <si>
-    <t>w</t>
-  </si>
-  <si>
-    <t>trash</t>
-  </si>
-  <si>
-    <t>story</t>
-  </si>
-  <si>
-    <t>tests</t>
-  </si>
-  <si>
-    <t>positive</t>
-  </si>
-  <si>
-    <t>trading</t>
-  </si>
-  <si>
-    <t>interesting</t>
-  </si>
-  <si>
-    <t>12</t>
-  </si>
-  <si>
-    <t>month</t>
-  </si>
-  <si>
-    <t>plan</t>
-  </si>
-  <si>
-    <t>eu</t>
-  </si>
-  <si>
-    <t>close</t>
-  </si>
-  <si>
-    <t>non</t>
-  </si>
-  <si>
-    <t>shift</t>
-  </si>
-  <si>
-    <t>national</t>
-  </si>
-  <si>
-    <t>healthcare</t>
-  </si>
-  <si>
-    <t>test</t>
-  </si>
-  <si>
-    <t>everyone</t>
-  </si>
-  <si>
-    <t>advantage</t>
-  </si>
-  <si>
-    <t>trends</t>
-  </si>
-  <si>
-    <t>rt</t>
-  </si>
-  <si>
-    <t>line</t>
-  </si>
-  <si>
-    <t>simple</t>
-  </si>
-  <si>
-    <t>solution</t>
-  </si>
-  <si>
-    <t>banks</t>
-  </si>
-  <si>
-    <t>full</t>
-  </si>
-  <si>
-    <t>8</t>
-  </si>
-  <si>
-    <t>protect</t>
-  </si>
-  <si>
-    <t>right</t>
-  </si>
-  <si>
-    <t>consider</t>
-  </si>
-  <si>
-    <t>buying</t>
-  </si>
-  <si>
-    <t>true</t>
-  </si>
-  <si>
-    <t>30</t>
-  </si>
-  <si>
-    <t>provide</t>
-  </si>
-  <si>
-    <t>daily</t>
-  </si>
-  <si>
-    <t>india</t>
-  </si>
-  <si>
-    <t>company</t>
-  </si>
-  <si>
-    <t>profit</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>security</t>
-  </si>
-  <si>
-    <t>much</t>
-  </si>
-  <si>
-    <t>relief</t>
-  </si>
-  <si>
-    <t>thank</t>
-  </si>
-  <si>
-    <t>fresh</t>
-  </si>
-  <si>
-    <t>making</t>
-  </si>
-  <si>
-    <t>e</t>
-  </si>
-  <si>
-    <t>come</t>
-  </si>
-  <si>
-    <t>confidence</t>
-  </si>
-  <si>
-    <t>increased</t>
-  </si>
-  <si>
-    <t>supply</t>
-  </si>
-  <si>
-    <t>others</t>
-  </si>
-  <si>
-    <t>want</t>
-  </si>
-  <si>
-    <t>got</t>
-  </si>
-  <si>
-    <t>money</t>
-  </si>
-  <si>
-    <t>markets</t>
-  </si>
-  <si>
-    <t>give</t>
-  </si>
-  <si>
-    <t>join</t>
-  </si>
-  <si>
-    <t>di</t>
-  </si>
-  <si>
-    <t>week</t>
-  </si>
-  <si>
-    <t>work</t>
-  </si>
-  <si>
-    <t>news</t>
-  </si>
-  <si>
-    <t>make</t>
-  </si>
-  <si>
-    <t>community</t>
-  </si>
-  <si>
-    <t>best</t>
-  </si>
-  <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>love</t>
-  </si>
-  <si>
-    <t>social</t>
-  </si>
-  <si>
-    <t>safe</t>
-  </si>
-  <si>
-    <t>email</t>
-  </si>
-  <si>
-    <t>shit</t>
-  </si>
-  <si>
-    <t>deadly</t>
-  </si>
-  <si>
-    <t>wasted</t>
-  </si>
-  <si>
-    <t>sorry</t>
-  </si>
-  <si>
-    <t>hell</t>
-  </si>
-  <si>
-    <t>insane</t>
-  </si>
-  <si>
-    <t>complaint</t>
-  </si>
-  <si>
-    <t>hardship</t>
-  </si>
-  <si>
-    <t>move</t>
-  </si>
-  <si>
-    <t>fast</t>
-  </si>
-  <si>
-    <t>today</t>
-  </si>
-  <si>
-    <t>ready</t>
-  </si>
-  <si>
-    <t>made</t>
-  </si>
-  <si>
-    <t>supermarkets</t>
-  </si>
-  <si>
-    <t>think</t>
-  </si>
-  <si>
-    <t>take</t>
-  </si>
-  <si>
-    <t>empty</t>
-  </si>
-  <si>
-    <t>damn</t>
-  </si>
-  <si>
-    <t>idiot</t>
-  </si>
-  <si>
-    <t>expose</t>
-  </si>
-  <si>
-    <t>cut</t>
-  </si>
-  <si>
-    <t>negative</t>
   </si>
   <si>
     <t>3</t>
@@ -3082,10 +3082,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="J1" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -3143,7 +3143,7 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.03263182271204114</v>
+        <v>0.03313725775788495</v>
       </c>
       <c r="C3">
         <v>255</v>
@@ -3193,7 +3193,7 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.03125929444346707</v>
+        <v>0.03174347036767154</v>
       </c>
       <c r="C4">
         <v>234</v>
@@ -3243,7 +3243,7 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.01226090402679855</v>
+        <v>0.01245081344876242</v>
       </c>
       <c r="C5">
         <v>36</v>
@@ -3264,7 +3264,7 @@
         <v>39</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="K5">
         <v>0.009953638859424878</v>
@@ -3293,7 +3293,7 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.01173892188085577</v>
+        <v>0.01192074630946232</v>
       </c>
       <c r="C6">
         <v>33</v>
@@ -3314,7 +3314,7 @@
         <v>2344</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K6">
         <v>0.009363133760486638</v>
@@ -3343,7 +3343,7 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.01137763741608134</v>
+        <v>0.01155386590137736</v>
       </c>
       <c r="C7">
         <v>31</v>
@@ -3364,7 +3364,7 @@
         <v>5</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="K7">
         <v>0.009044445548036923</v>
@@ -3393,7 +3393,7 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.010010986216964</v>
+        <v>0.01016604661068347</v>
       </c>
       <c r="C8">
         <v>24</v>
@@ -3414,7 +3414,7 @@
         <v>5</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>22</v>
+        <v>267</v>
       </c>
       <c r="K8">
         <v>0.008486746394377062</v>
@@ -3423,19 +3423,19 @@
         <v>221</v>
       </c>
       <c r="M8">
-        <v>237</v>
+        <v>221</v>
       </c>
       <c r="N8">
-        <v>0.93</v>
+        <v>1</v>
       </c>
       <c r="O8">
-        <v>0.06999999999999995</v>
+        <v>0</v>
       </c>
       <c r="P8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q8">
-        <v>103</v>
+        <v>119</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -3443,7 +3443,7 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.009800205006005386</v>
+        <v>0.009952000604743464</v>
       </c>
       <c r="C9">
         <v>23</v>
@@ -3464,7 +3464,7 @@
         <v>54</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="K9">
         <v>0.007992324772661248</v>
@@ -3493,7 +3493,7 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.009584789579496407</v>
+        <v>0.009733248603782798</v>
       </c>
       <c r="C10">
         <v>22</v>
@@ -3514,7 +3514,7 @@
         <v>1655</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="K10">
         <v>0.007951443047927368</v>
@@ -3543,7 +3543,7 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.009138738289840817</v>
+        <v>0.009280288415533793</v>
       </c>
       <c r="C11">
         <v>20</v>
@@ -3564,7 +3564,7 @@
         <v>6</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="K11">
         <v>0.007869042450635789</v>
@@ -3593,7 +3593,7 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.008907340268210962</v>
+        <v>0.009045306264672091</v>
       </c>
       <c r="C12">
         <v>19</v>
@@ -3614,7 +3614,7 @@
         <v>12</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>36</v>
+        <v>268</v>
       </c>
       <c r="K12">
         <v>0.007508758546402959</v>
@@ -3623,19 +3623,19 @@
         <v>173</v>
       </c>
       <c r="M12">
-        <v>185</v>
+        <v>173</v>
       </c>
       <c r="N12">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="O12">
-        <v>0.06000000000000005</v>
+        <v>0</v>
       </c>
       <c r="P12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q12">
-        <v>54</v>
+        <v>66</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -3643,7 +3643,7 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.008669768380826698</v>
+        <v>0.008804054620908573</v>
       </c>
       <c r="C13">
         <v>18</v>
@@ -3664,7 +3664,7 @@
         <v>1</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="K13">
         <v>0.007465229144568658</v>
@@ -3693,7 +3693,7 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.008425500394675219</v>
+        <v>0.008556003162351396</v>
       </c>
       <c r="C14">
         <v>17</v>
@@ -3714,7 +3714,7 @@
         <v>8</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="K14">
         <v>0.006874309618173218</v>
@@ -3743,7 +3743,7 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.008425500394675219</v>
+        <v>0.008556003162351396</v>
       </c>
       <c r="C15">
         <v>17</v>
@@ -3764,7 +3764,7 @@
         <v>9</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K15">
         <v>0.006633030158999569</v>
@@ -3793,7 +3793,7 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.008173936017865696</v>
+        <v>0.00830054229917495</v>
       </c>
       <c r="C16">
         <v>16</v>
@@ -3814,7 +3814,7 @@
         <v>15</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="K16">
         <v>0.006433494709809677</v>
@@ -3843,28 +3843,28 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.008173936017865696</v>
+        <v>0.008036965522298701</v>
       </c>
       <c r="C17">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D17">
-        <v>237</v>
+        <v>15</v>
       </c>
       <c r="E17">
-        <v>0.93</v>
+        <v>0</v>
       </c>
       <c r="F17">
-        <v>0.06999999999999995</v>
+        <v>1</v>
       </c>
       <c r="G17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H17">
-        <v>103</v>
+        <v>12</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="K17">
         <v>0.00640811593352664</v>
@@ -3893,7 +3893,7 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.007914379517539703</v>
+        <v>0.008036965522298701</v>
       </c>
       <c r="C18">
         <v>15</v>
@@ -3911,10 +3911,10 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="K18">
         <v>0.006253680806991306</v>
@@ -3943,13 +3943,13 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.007914379517539703</v>
+        <v>0.007764446351984376</v>
       </c>
       <c r="C19">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D19">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -3961,10 +3961,10 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="K19">
         <v>0.006095334072382321</v>
@@ -3993,7 +3993,7 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.00764601702006619</v>
+        <v>0.007764446351984376</v>
       </c>
       <c r="C20">
         <v>14</v>
@@ -4011,10 +4011,10 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="K20">
         <v>0.00590523216381263</v>
@@ -4043,7 +4043,7 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.00764601702006619</v>
+        <v>0.007764446351984376</v>
       </c>
       <c r="C21">
         <v>14</v>
@@ -4061,10 +4061,10 @@
         <v>0</v>
       </c>
       <c r="H21">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="K21">
         <v>0.00584978274650136</v>
@@ -4093,13 +4093,13 @@
         <v>27</v>
       </c>
       <c r="B22">
-        <v>0.00764601702006619</v>
+        <v>0.007482007718458258</v>
       </c>
       <c r="C22">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D22">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -4114,7 +4114,7 @@
         <v>6</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="K22">
         <v>0.005680187672909974</v>
@@ -4143,7 +4143,7 @@
         <v>28</v>
       </c>
       <c r="B23">
-        <v>0.007367886358694176</v>
+        <v>0.007482007718458258</v>
       </c>
       <c r="C23">
         <v>13</v>
@@ -4161,10 +4161,10 @@
         <v>0</v>
       </c>
       <c r="H23">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="K23">
         <v>0.005505370633998392</v>
@@ -4193,28 +4193,28 @@
         <v>29</v>
       </c>
       <c r="B24">
-        <v>0.007367886358694176</v>
+        <v>0.007482007718458258</v>
       </c>
       <c r="C24">
         <v>13</v>
       </c>
       <c r="D24">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E24">
-        <v>0</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="F24">
-        <v>1</v>
+        <v>0.9299999999999999</v>
       </c>
       <c r="G24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>41</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="K24">
         <v>0.005355332295902504</v>
@@ -4243,28 +4243,28 @@
         <v>30</v>
       </c>
       <c r="B25">
-        <v>0.007367886358694176</v>
+        <v>0.007482007718458258</v>
       </c>
       <c r="C25">
         <v>13</v>
       </c>
       <c r="D25">
-        <v>14</v>
+        <v>203</v>
       </c>
       <c r="E25">
-        <v>0.07000000000000001</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F25">
-        <v>0.9299999999999999</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G25" t="b">
         <v>1</v>
       </c>
       <c r="H25">
-        <v>41</v>
+        <v>215</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="K25">
         <v>0.005263256682762403</v>
@@ -4293,13 +4293,13 @@
         <v>31</v>
       </c>
       <c r="B26">
-        <v>0.007367886358694176</v>
+        <v>0.007482007718458258</v>
       </c>
       <c r="C26">
         <v>13</v>
       </c>
       <c r="D26">
-        <v>203</v>
+        <v>209</v>
       </c>
       <c r="E26">
         <v>0.9399999999999999</v>
@@ -4311,10 +4311,10 @@
         <v>1</v>
       </c>
       <c r="H26">
-        <v>215</v>
+        <v>86</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="K26">
         <v>0.005232204749912985</v>
@@ -4343,28 +4343,28 @@
         <v>32</v>
       </c>
       <c r="B27">
-        <v>0.007367886358694176</v>
+        <v>0.007188480496272798</v>
       </c>
       <c r="C27">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D27">
-        <v>209</v>
+        <v>12</v>
       </c>
       <c r="E27">
-        <v>0.9399999999999999</v>
+        <v>0</v>
       </c>
       <c r="F27">
-        <v>0.06000000000000005</v>
+        <v>1</v>
       </c>
       <c r="G27" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H27">
-        <v>86</v>
+        <v>2</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="K27">
         <v>0.005009454660898164</v>
@@ -4393,7 +4393,7 @@
         <v>33</v>
       </c>
       <c r="B28">
-        <v>0.007078836240380306</v>
+        <v>0.007188480496272798</v>
       </c>
       <c r="C28">
         <v>12</v>
@@ -4411,10 +4411,10 @@
         <v>0</v>
       </c>
       <c r="H28">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="K28">
         <v>0.004943968777443093</v>
@@ -4443,7 +4443,7 @@
         <v>34</v>
       </c>
       <c r="B29">
-        <v>0.007078836240380306</v>
+        <v>0.007188480496272798</v>
       </c>
       <c r="C29">
         <v>12</v>
@@ -4461,10 +4461,10 @@
         <v>0</v>
       </c>
       <c r="H29">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="K29">
         <v>0.004707599890274711</v>
@@ -4493,13 +4493,13 @@
         <v>35</v>
       </c>
       <c r="B30">
-        <v>0.007078836240380306</v>
+        <v>0.006882446090709311</v>
       </c>
       <c r="C30">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D30">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E30">
         <v>0</v>
@@ -4511,10 +4511,10 @@
         <v>0</v>
       </c>
       <c r="H30">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="J30" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="K30">
         <v>0.004672856980829115</v>
@@ -4543,28 +4543,28 @@
         <v>36</v>
       </c>
       <c r="B31">
-        <v>0.007078836240380306</v>
+        <v>0.006882446090709311</v>
       </c>
       <c r="C31">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D31">
-        <v>185</v>
+        <v>11</v>
       </c>
       <c r="E31">
-        <v>0.9399999999999999</v>
+        <v>0</v>
       </c>
       <c r="F31">
-        <v>0.06000000000000005</v>
+        <v>1</v>
       </c>
       <c r="G31" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H31">
-        <v>54</v>
+        <v>1</v>
       </c>
       <c r="J31" s="1" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="K31">
         <v>0.004567042727234999</v>
@@ -4593,7 +4593,7 @@
         <v>37</v>
       </c>
       <c r="B32">
-        <v>0.006777469707908067</v>
+        <v>0.006882446090709311</v>
       </c>
       <c r="C32">
         <v>11</v>
@@ -4611,10 +4611,10 @@
         <v>0</v>
       </c>
       <c r="H32">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="J32" s="1" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="K32">
         <v>0.004531222231226251</v>
@@ -4643,28 +4643,28 @@
         <v>38</v>
       </c>
       <c r="B33">
-        <v>0.006777469707908067</v>
+        <v>0.006882446090709311</v>
       </c>
       <c r="C33">
         <v>11</v>
       </c>
       <c r="D33">
-        <v>11</v>
+        <v>262</v>
       </c>
       <c r="E33">
-        <v>0</v>
+        <v>0.96</v>
       </c>
       <c r="F33">
-        <v>1</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="G33" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H33">
-        <v>1</v>
+        <v>639</v>
       </c>
       <c r="J33" s="1" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="K33">
         <v>0.00438501510307942</v>
@@ -4693,13 +4693,13 @@
         <v>39</v>
       </c>
       <c r="B34">
-        <v>0.006777469707908067</v>
+        <v>0.006562154869990905</v>
       </c>
       <c r="C34">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D34">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E34">
         <v>0</v>
@@ -4714,7 +4714,7 @@
         <v>1</v>
       </c>
       <c r="J34" s="1" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="K34">
         <v>0.004347695146925958</v>
@@ -4743,28 +4743,28 @@
         <v>40</v>
       </c>
       <c r="B35">
-        <v>0.006777469707908067</v>
+        <v>0.006562154869990905</v>
       </c>
       <c r="C35">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D35">
-        <v>262</v>
+        <v>10</v>
       </c>
       <c r="E35">
-        <v>0.96</v>
+        <v>0</v>
       </c>
       <c r="F35">
-        <v>0.04000000000000004</v>
+        <v>1</v>
       </c>
       <c r="G35" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H35">
-        <v>639</v>
+        <v>6</v>
       </c>
       <c r="J35" s="1" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="K35">
         <v>0.004310052056178954</v>
@@ -4793,28 +4793,28 @@
         <v>41</v>
       </c>
       <c r="B36">
-        <v>0.006462063816235594</v>
+        <v>0.006562154869990905</v>
       </c>
       <c r="C36">
         <v>10</v>
       </c>
       <c r="D36">
-        <v>10</v>
+        <v>145</v>
       </c>
       <c r="E36">
-        <v>0</v>
+        <v>0.93</v>
       </c>
       <c r="F36">
-        <v>1</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="G36" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H36">
-        <v>1</v>
+        <v>271</v>
       </c>
       <c r="J36" s="1" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="K36">
         <v>0.004076901095830737</v>
@@ -4843,28 +4843,28 @@
         <v>42</v>
       </c>
       <c r="B37">
-        <v>0.006462063816235594</v>
+        <v>0.006562154869990905</v>
       </c>
       <c r="C37">
         <v>10</v>
       </c>
       <c r="D37">
-        <v>10</v>
+        <v>115</v>
       </c>
       <c r="E37">
-        <v>0</v>
+        <v>0.91</v>
       </c>
       <c r="F37">
-        <v>1</v>
+        <v>0.08999999999999997</v>
       </c>
       <c r="G37" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H37">
-        <v>6</v>
+        <v>535</v>
       </c>
       <c r="J37" s="1" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="K37">
         <v>0.004076901095830737</v>
@@ -4893,28 +4893,28 @@
         <v>43</v>
       </c>
       <c r="B38">
-        <v>0.006462063816235594</v>
+        <v>0.006562154869990905</v>
       </c>
       <c r="C38">
         <v>10</v>
       </c>
       <c r="D38">
-        <v>145</v>
+        <v>279</v>
       </c>
       <c r="E38">
-        <v>0.93</v>
+        <v>0.96</v>
       </c>
       <c r="F38">
-        <v>0.06999999999999995</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="G38" t="b">
         <v>1</v>
       </c>
       <c r="H38">
-        <v>271</v>
+        <v>615</v>
       </c>
       <c r="J38" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="K38">
         <v>0.003955175021954474</v>
@@ -4943,25 +4943,25 @@
         <v>44</v>
       </c>
       <c r="B39">
-        <v>0.006462063816235594</v>
+        <v>0.006225406724381212</v>
       </c>
       <c r="C39">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D39">
-        <v>115</v>
+        <v>9</v>
       </c>
       <c r="E39">
-        <v>0.91</v>
+        <v>0</v>
       </c>
       <c r="F39">
-        <v>0.08999999999999997</v>
+        <v>1</v>
       </c>
       <c r="G39" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H39">
-        <v>535</v>
+        <v>0</v>
       </c>
       <c r="J39" s="1" t="s">
         <v>269</v>
@@ -4993,28 +4993,28 @@
         <v>45</v>
       </c>
       <c r="B40">
-        <v>0.006462063816235594</v>
+        <v>0.006225406724381212</v>
       </c>
       <c r="C40">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D40">
-        <v>279</v>
+        <v>9</v>
       </c>
       <c r="E40">
-        <v>0.96</v>
+        <v>0</v>
       </c>
       <c r="F40">
-        <v>0.04000000000000004</v>
+        <v>1</v>
       </c>
       <c r="G40" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H40">
-        <v>615</v>
+        <v>0</v>
       </c>
       <c r="J40" s="1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="K40">
         <v>0.003786791781939983</v>
@@ -5043,7 +5043,7 @@
         <v>46</v>
       </c>
       <c r="B41">
-        <v>0.006130452013399273</v>
+        <v>0.006225406724381212</v>
       </c>
       <c r="C41">
         <v>9</v>
@@ -5061,10 +5061,10 @@
         <v>0</v>
       </c>
       <c r="H41">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J41" s="1" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="K41">
         <v>0.003786791781939983</v>
@@ -5093,7 +5093,7 @@
         <v>47</v>
       </c>
       <c r="B42">
-        <v>0.006130452013399273</v>
+        <v>0.006225406724381212</v>
       </c>
       <c r="C42">
         <v>9</v>
@@ -5111,7 +5111,7 @@
         <v>0</v>
       </c>
       <c r="H42">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J42" s="1" t="s">
         <v>270</v>
@@ -5143,13 +5143,13 @@
         <v>48</v>
       </c>
       <c r="B43">
-        <v>0.006130452013399273</v>
+        <v>0.005869369747272384</v>
       </c>
       <c r="C43">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D43">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E43">
         <v>0</v>
@@ -5161,10 +5161,10 @@
         <v>0</v>
       </c>
       <c r="H43">
-        <v>2</v>
+        <v>72</v>
       </c>
       <c r="J43" s="1" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="K43">
         <v>0.003699727459219936</v>
@@ -5193,13 +5193,13 @@
         <v>49</v>
       </c>
       <c r="B44">
-        <v>0.006130452013399273</v>
+        <v>0.005869369747272384</v>
       </c>
       <c r="C44">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D44">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E44">
         <v>0</v>
@@ -5211,10 +5211,10 @@
         <v>0</v>
       </c>
       <c r="H44">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J44" s="1" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="K44">
         <v>0.00365541774751873</v>
@@ -5243,7 +5243,7 @@
         <v>50</v>
       </c>
       <c r="B45">
-        <v>0.005779845587217799</v>
+        <v>0.005869369747272384</v>
       </c>
       <c r="C45">
         <v>8</v>
@@ -5261,7 +5261,7 @@
         <v>0</v>
       </c>
       <c r="H45">
-        <v>72</v>
+        <v>5</v>
       </c>
       <c r="J45" s="1" t="s">
         <v>271</v>
@@ -5293,13 +5293,13 @@
         <v>51</v>
       </c>
       <c r="B46">
-        <v>0.005779845587217799</v>
+        <v>0.005490292667647304</v>
       </c>
       <c r="C46">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D46">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E46">
         <v>0</v>
@@ -5314,7 +5314,7 @@
         <v>0</v>
       </c>
       <c r="J46" s="1" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="K46">
         <v>0.003610564297342427</v>
@@ -5343,13 +5343,13 @@
         <v>52</v>
       </c>
       <c r="B47">
-        <v>0.005779845587217799</v>
+        <v>0.005490292667647304</v>
       </c>
       <c r="C47">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D47">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E47">
         <v>0</v>
@@ -5361,10 +5361,10 @@
         <v>0</v>
       </c>
       <c r="H47">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="J47" s="1" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="K47">
         <v>0.003565146586272816</v>
@@ -5393,7 +5393,7 @@
         <v>53</v>
       </c>
       <c r="B48">
-        <v>0.005406550483956562</v>
+        <v>0.005490292667647304</v>
       </c>
       <c r="C48">
         <v>7</v>
@@ -5414,7 +5414,7 @@
         <v>0</v>
       </c>
       <c r="J48" s="1" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="K48">
         <v>0.003472529546937005</v>
@@ -5443,7 +5443,7 @@
         <v>54</v>
       </c>
       <c r="B49">
-        <v>0.005406550483956562</v>
+        <v>0.005490292667647304</v>
       </c>
       <c r="C49">
         <v>7</v>
@@ -5461,7 +5461,7 @@
         <v>0</v>
       </c>
       <c r="H49">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J49" s="1" t="s">
         <v>272</v>
@@ -5493,7 +5493,7 @@
         <v>55</v>
       </c>
       <c r="B50">
-        <v>0.005406550483956562</v>
+        <v>0.005490292667647304</v>
       </c>
       <c r="C50">
         <v>7</v>
@@ -5511,10 +5511,10 @@
         <v>0</v>
       </c>
       <c r="H50">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="J50" s="1" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="K50">
         <v>0.003425282045426249</v>
@@ -5543,7 +5543,7 @@
         <v>56</v>
       </c>
       <c r="B51">
-        <v>0.005406550483956562</v>
+        <v>0.005490292667647304</v>
       </c>
       <c r="C51">
         <v>7</v>
@@ -5561,10 +5561,10 @@
         <v>0</v>
       </c>
       <c r="H51">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J51" s="1" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="K51">
         <v>0.003377373643393389</v>
@@ -5593,7 +5593,7 @@
         <v>57</v>
       </c>
       <c r="B52">
-        <v>0.005406550483956562</v>
+        <v>0.005490292667647304</v>
       </c>
       <c r="C52">
         <v>7</v>
@@ -5611,10 +5611,10 @@
         <v>0</v>
       </c>
       <c r="H52">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="J52" s="1" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="K52">
         <v>0.003279457882002168</v>
@@ -5643,7 +5643,7 @@
         <v>58</v>
       </c>
       <c r="B53">
-        <v>0.005406550483956562</v>
+        <v>0.005490292667647304</v>
       </c>
       <c r="C53">
         <v>7</v>
@@ -5661,10 +5661,10 @@
         <v>0</v>
       </c>
       <c r="H53">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J53" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="K53">
         <v>0.003279457882002168</v>
@@ -5693,28 +5693,28 @@
         <v>59</v>
       </c>
       <c r="B54">
-        <v>0.005406550483956562</v>
+        <v>0.005490292667647304</v>
       </c>
       <c r="C54">
         <v>7</v>
       </c>
       <c r="D54">
-        <v>7</v>
+        <v>91</v>
       </c>
       <c r="E54">
-        <v>0</v>
+        <v>0.92</v>
       </c>
       <c r="F54">
-        <v>1</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="G54" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H54">
         <v>15</v>
       </c>
       <c r="J54" s="1" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="K54">
         <v>0.003229386882396572</v>
@@ -5743,25 +5743,25 @@
         <v>60</v>
       </c>
       <c r="B55">
-        <v>0.005406550483956562</v>
+        <v>0.005490292667647304</v>
       </c>
       <c r="C55">
         <v>7</v>
       </c>
       <c r="D55">
-        <v>7</v>
+        <v>311</v>
       </c>
       <c r="E55">
-        <v>0</v>
+        <v>0.98</v>
       </c>
       <c r="F55">
-        <v>1</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="G55" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H55">
-        <v>3</v>
+        <v>72</v>
       </c>
       <c r="J55" s="1" t="s">
         <v>273</v>
@@ -5793,28 +5793,28 @@
         <v>61</v>
       </c>
       <c r="B56">
-        <v>0.005406550483956562</v>
+        <v>0.005490292667647304</v>
       </c>
       <c r="C56">
         <v>7</v>
       </c>
       <c r="D56">
-        <v>91</v>
+        <v>152</v>
       </c>
       <c r="E56">
-        <v>0.92</v>
+        <v>0.95</v>
       </c>
       <c r="F56">
-        <v>0.07999999999999996</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="G56" t="b">
         <v>1</v>
       </c>
       <c r="H56">
-        <v>15</v>
+        <v>715</v>
       </c>
       <c r="J56" s="1" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="K56">
         <v>0.003178527217527632</v>
@@ -5843,28 +5843,28 @@
         <v>62</v>
       </c>
       <c r="B57">
-        <v>0.005406550483956562</v>
+        <v>0.005083023305341734</v>
       </c>
       <c r="C57">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D57">
-        <v>311</v>
+        <v>6</v>
       </c>
       <c r="E57">
-        <v>0.98</v>
+        <v>0</v>
       </c>
       <c r="F57">
-        <v>0.02000000000000002</v>
+        <v>1</v>
       </c>
       <c r="G57" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H57">
-        <v>72</v>
+        <v>45</v>
       </c>
       <c r="J57" s="1" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="K57">
         <v>0.003178527217527632</v>
@@ -5893,28 +5893,28 @@
         <v>63</v>
       </c>
       <c r="B58">
-        <v>0.005406550483956562</v>
+        <v>0.005083023305341734</v>
       </c>
       <c r="C58">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D58">
-        <v>152</v>
+        <v>6</v>
       </c>
       <c r="E58">
-        <v>0.95</v>
+        <v>0</v>
       </c>
       <c r="F58">
-        <v>0.05000000000000004</v>
+        <v>1</v>
       </c>
       <c r="G58" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H58">
-        <v>715</v>
+        <v>24</v>
       </c>
       <c r="J58" s="1" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="K58">
         <v>0.003178527217527632</v>
@@ -5943,28 +5943,28 @@
         <v>64</v>
       </c>
       <c r="B59">
-        <v>0.005005493108482</v>
+        <v>0.005083023305341734</v>
       </c>
       <c r="C59">
         <v>6</v>
       </c>
       <c r="D59">
-        <v>6</v>
+        <v>105</v>
       </c>
       <c r="E59">
-        <v>0</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F59">
-        <v>1</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G59" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H59">
-        <v>45</v>
+        <v>110</v>
       </c>
       <c r="J59" s="1" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="K59">
         <v>0.003178527217527632</v>
@@ -5993,28 +5993,28 @@
         <v>65</v>
       </c>
       <c r="B60">
-        <v>0.005005493108482</v>
+        <v>0.005083023305341734</v>
       </c>
       <c r="C60">
         <v>6</v>
       </c>
       <c r="D60">
-        <v>6</v>
+        <v>91</v>
       </c>
       <c r="E60">
-        <v>0</v>
+        <v>0.93</v>
       </c>
       <c r="F60">
-        <v>1</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="G60" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H60">
-        <v>24</v>
+        <v>258</v>
       </c>
       <c r="J60" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="K60">
         <v>0.003074284720923188</v>
@@ -6043,28 +6043,28 @@
         <v>66</v>
       </c>
       <c r="B61">
-        <v>0.005005493108482</v>
+        <v>0.005083023305341734</v>
       </c>
       <c r="C61">
         <v>6</v>
       </c>
       <c r="D61">
-        <v>105</v>
+        <v>83</v>
       </c>
       <c r="E61">
-        <v>0.9399999999999999</v>
+        <v>0.93</v>
       </c>
       <c r="F61">
-        <v>0.06000000000000005</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="G61" t="b">
         <v>1</v>
       </c>
       <c r="H61">
-        <v>110</v>
+        <v>244</v>
       </c>
       <c r="J61" s="1" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="K61">
         <v>0.003074284720923188</v>
@@ -6093,28 +6093,28 @@
         <v>67</v>
       </c>
       <c r="B62">
-        <v>0.005005493108482</v>
+        <v>0.005083023305341734</v>
       </c>
       <c r="C62">
         <v>6</v>
       </c>
       <c r="D62">
-        <v>91</v>
+        <v>6</v>
       </c>
       <c r="E62">
-        <v>0.93</v>
+        <v>0</v>
       </c>
       <c r="F62">
-        <v>0.06999999999999995</v>
+        <v>1</v>
       </c>
       <c r="G62" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H62">
-        <v>258</v>
+        <v>12</v>
       </c>
       <c r="J62" s="1" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="K62">
         <v>0.0030208148208175</v>
@@ -6143,25 +6143,25 @@
         <v>68</v>
       </c>
       <c r="B63">
-        <v>0.005005493108482</v>
+        <v>0.004640144207766896</v>
       </c>
       <c r="C63">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D63">
-        <v>83</v>
+        <v>5</v>
       </c>
       <c r="E63">
-        <v>0.93</v>
+        <v>0</v>
       </c>
       <c r="F63">
-        <v>0.06999999999999995</v>
+        <v>1</v>
       </c>
       <c r="G63" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H63">
-        <v>244</v>
+        <v>14</v>
       </c>
       <c r="J63" s="1" t="s">
         <v>274</v>
@@ -6193,13 +6193,13 @@
         <v>69</v>
       </c>
       <c r="B64">
-        <v>0.005005493108482</v>
+        <v>0.004640144207766896</v>
       </c>
       <c r="C64">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D64">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E64">
         <v>0</v>
@@ -6211,10 +6211,10 @@
         <v>0</v>
       </c>
       <c r="H64">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="J64" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="K64">
         <v>0.002966381266465856</v>
@@ -6243,7 +6243,7 @@
         <v>70</v>
       </c>
       <c r="B65">
-        <v>0.004569369144920408</v>
+        <v>0.004640144207766896</v>
       </c>
       <c r="C65">
         <v>5</v>
@@ -6261,10 +6261,10 @@
         <v>0</v>
       </c>
       <c r="H65">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="J65" s="1" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="K65">
         <v>0.002854401704521874</v>
@@ -6293,7 +6293,7 @@
         <v>71</v>
       </c>
       <c r="B66">
-        <v>0.004569369144920408</v>
+        <v>0.004640144207766896</v>
       </c>
       <c r="C66">
         <v>5</v>
@@ -6311,7 +6311,7 @@
         <v>0</v>
       </c>
       <c r="H66">
-        <v>7</v>
+        <v>32</v>
       </c>
       <c r="J66" s="1" t="s">
         <v>275</v>
@@ -6343,7 +6343,7 @@
         <v>72</v>
       </c>
       <c r="B67">
-        <v>0.004569369144920408</v>
+        <v>0.004640144207766896</v>
       </c>
       <c r="C67">
         <v>5</v>
@@ -6361,7 +6361,7 @@
         <v>0</v>
       </c>
       <c r="H67">
-        <v>3</v>
+        <v>21</v>
       </c>
       <c r="J67" s="1" t="s">
         <v>276</v>
@@ -6393,25 +6393,25 @@
         <v>73</v>
       </c>
       <c r="B68">
-        <v>0.004569369144920408</v>
+        <v>0.004640144207766896</v>
       </c>
       <c r="C68">
         <v>5</v>
       </c>
       <c r="D68">
-        <v>5</v>
+        <v>32</v>
       </c>
       <c r="E68">
-        <v>0</v>
+        <v>0.84</v>
       </c>
       <c r="F68">
-        <v>1</v>
+        <v>0.16</v>
       </c>
       <c r="G68" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H68">
-        <v>32</v>
+        <v>65</v>
       </c>
       <c r="J68" s="1" t="s">
         <v>277</v>
@@ -6443,25 +6443,25 @@
         <v>74</v>
       </c>
       <c r="B69">
-        <v>0.004569369144920408</v>
+        <v>0.004640144207766896</v>
       </c>
       <c r="C69">
         <v>5</v>
       </c>
       <c r="D69">
-        <v>5</v>
+        <v>72</v>
       </c>
       <c r="E69">
-        <v>0</v>
+        <v>0.93</v>
       </c>
       <c r="F69">
-        <v>1</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="G69" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H69">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J69" s="1" t="s">
         <v>278</v>
@@ -6493,25 +6493,25 @@
         <v>75</v>
       </c>
       <c r="B70">
-        <v>0.004569369144920408</v>
+        <v>0.004150271149587475</v>
       </c>
       <c r="C70">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D70">
-        <v>32</v>
+        <v>4</v>
       </c>
       <c r="E70">
-        <v>0.84</v>
+        <v>0</v>
       </c>
       <c r="F70">
-        <v>0.16</v>
+        <v>1</v>
       </c>
       <c r="G70" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H70">
-        <v>65</v>
+        <v>3</v>
       </c>
       <c r="J70" s="1" t="s">
         <v>279</v>
@@ -6543,28 +6543,28 @@
         <v>76</v>
       </c>
       <c r="B71">
-        <v>0.004569369144920408</v>
+        <v>0.004150271149587475</v>
       </c>
       <c r="C71">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D71">
-        <v>72</v>
+        <v>4</v>
       </c>
       <c r="E71">
-        <v>0.93</v>
+        <v>0</v>
       </c>
       <c r="F71">
-        <v>0.06999999999999995</v>
+        <v>1</v>
       </c>
       <c r="G71" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H71">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="J71" s="1" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="K71">
         <v>0.002737845934948713</v>
@@ -6593,7 +6593,7 @@
         <v>77</v>
       </c>
       <c r="B72">
-        <v>0.004086968008932848</v>
+        <v>0.004150271149587475</v>
       </c>
       <c r="C72">
         <v>4</v>
@@ -6611,7 +6611,7 @@
         <v>0</v>
       </c>
       <c r="H72">
-        <v>3</v>
+        <v>34</v>
       </c>
       <c r="J72" s="1" t="s">
         <v>280</v>
@@ -6643,7 +6643,7 @@
         <v>78</v>
       </c>
       <c r="B73">
-        <v>0.004086968008932848</v>
+        <v>0.004150271149587475</v>
       </c>
       <c r="C73">
         <v>4</v>
@@ -6661,10 +6661,10 @@
         <v>0</v>
       </c>
       <c r="H73">
-        <v>19</v>
+        <v>2</v>
       </c>
       <c r="J73" s="1" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="K73">
         <v>0.002737845934948713</v>
@@ -6693,7 +6693,7 @@
         <v>79</v>
       </c>
       <c r="B74">
-        <v>0.004086968008932848</v>
+        <v>0.004150271149587475</v>
       </c>
       <c r="C74">
         <v>4</v>
@@ -6711,10 +6711,10 @@
         <v>0</v>
       </c>
       <c r="H74">
-        <v>34</v>
+        <v>15</v>
       </c>
       <c r="J74" s="1" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="K74">
         <v>0.002677666147951252</v>
@@ -6743,7 +6743,7 @@
         <v>80</v>
       </c>
       <c r="B75">
-        <v>0.004086968008932848</v>
+        <v>0.004150271149587475</v>
       </c>
       <c r="C75">
         <v>4</v>
@@ -6761,10 +6761,10 @@
         <v>0</v>
       </c>
       <c r="H75">
-        <v>2</v>
+        <v>36</v>
       </c>
       <c r="J75" s="1" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="K75">
         <v>0.002677666147951252</v>
@@ -6793,7 +6793,7 @@
         <v>81</v>
       </c>
       <c r="B76">
-        <v>0.004086968008932848</v>
+        <v>0.004150271149587475</v>
       </c>
       <c r="C76">
         <v>4</v>
@@ -6811,10 +6811,10 @@
         <v>0</v>
       </c>
       <c r="H76">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="J76" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="K76">
         <v>0.002677666147951252</v>
@@ -6843,7 +6843,7 @@
         <v>82</v>
       </c>
       <c r="B77">
-        <v>0.004086968008932848</v>
+        <v>0.004150271149587475</v>
       </c>
       <c r="C77">
         <v>4</v>
@@ -6861,10 +6861,10 @@
         <v>0</v>
       </c>
       <c r="H77">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="J77" s="1" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="K77">
         <v>0.002677666147951252</v>
@@ -6893,7 +6893,7 @@
         <v>83</v>
       </c>
       <c r="B78">
-        <v>0.004086968008932848</v>
+        <v>0.004150271149587475</v>
       </c>
       <c r="C78">
         <v>4</v>
@@ -6911,10 +6911,10 @@
         <v>0</v>
       </c>
       <c r="H78">
-        <v>3</v>
+        <v>26</v>
       </c>
       <c r="J78" s="1" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="K78">
         <v>0.002616102374956492</v>
@@ -6943,25 +6943,25 @@
         <v>84</v>
       </c>
       <c r="B79">
-        <v>0.004086968008932848</v>
+        <v>0.004150271149587475</v>
       </c>
       <c r="C79">
         <v>4</v>
       </c>
       <c r="D79">
-        <v>4</v>
+        <v>52</v>
       </c>
       <c r="E79">
-        <v>0</v>
+        <v>0.92</v>
       </c>
       <c r="F79">
-        <v>1</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="G79" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H79">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="J79" s="1" t="s">
         <v>281</v>
@@ -6993,28 +6993,28 @@
         <v>85</v>
       </c>
       <c r="B80">
-        <v>0.004086968008932848</v>
+        <v>0.004150271149587475</v>
       </c>
       <c r="C80">
         <v>4</v>
       </c>
       <c r="D80">
-        <v>4</v>
+        <v>48</v>
       </c>
       <c r="E80">
-        <v>0</v>
+        <v>0.92</v>
       </c>
       <c r="F80">
-        <v>1</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="G80" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H80">
-        <v>26</v>
+        <v>1113</v>
       </c>
       <c r="J80" s="1" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="K80">
         <v>0.002616102374956492</v>
@@ -7043,25 +7043,25 @@
         <v>86</v>
       </c>
       <c r="B81">
-        <v>0.004086968008932848</v>
+        <v>0.004150271149587475</v>
       </c>
       <c r="C81">
         <v>4</v>
       </c>
       <c r="D81">
-        <v>52</v>
+        <v>37</v>
       </c>
       <c r="E81">
-        <v>0.92</v>
+        <v>0.89</v>
       </c>
       <c r="F81">
-        <v>0.07999999999999996</v>
+        <v>0.11</v>
       </c>
       <c r="G81" t="b">
         <v>1</v>
       </c>
       <c r="H81">
-        <v>18</v>
+        <v>127</v>
       </c>
       <c r="J81" s="1" t="s">
         <v>282</v>
@@ -7093,25 +7093,25 @@
         <v>87</v>
       </c>
       <c r="B82">
-        <v>0.004086968008932848</v>
+        <v>0.004150271149587475</v>
       </c>
       <c r="C82">
         <v>4</v>
       </c>
       <c r="D82">
-        <v>48</v>
+        <v>61</v>
       </c>
       <c r="E82">
-        <v>0.92</v>
+        <v>0.93</v>
       </c>
       <c r="F82">
-        <v>0.07999999999999996</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="G82" t="b">
         <v>1</v>
       </c>
       <c r="H82">
-        <v>1113</v>
+        <v>28</v>
       </c>
       <c r="J82" s="1" t="s">
         <v>283</v>
@@ -7143,28 +7143,28 @@
         <v>88</v>
       </c>
       <c r="B83">
-        <v>0.004086968008932848</v>
+        <v>0.004150271149587475</v>
       </c>
       <c r="C83">
         <v>4</v>
       </c>
       <c r="D83">
-        <v>37</v>
+        <v>131</v>
       </c>
       <c r="E83">
-        <v>0.89</v>
+        <v>0.97</v>
       </c>
       <c r="F83">
-        <v>0.11</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="G83" t="b">
         <v>1</v>
       </c>
       <c r="H83">
-        <v>127</v>
+        <v>29</v>
       </c>
       <c r="J83" s="1" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="K83">
         <v>0.002553054498560872</v>
@@ -7193,25 +7193,25 @@
         <v>89</v>
       </c>
       <c r="B84">
-        <v>0.004086968008932848</v>
+        <v>0.004150271149587475</v>
       </c>
       <c r="C84">
         <v>4</v>
       </c>
       <c r="D84">
-        <v>61</v>
+        <v>36</v>
       </c>
       <c r="E84">
-        <v>0.93</v>
+        <v>0.89</v>
       </c>
       <c r="F84">
-        <v>0.06999999999999995</v>
+        <v>0.11</v>
       </c>
       <c r="G84" t="b">
         <v>1</v>
       </c>
       <c r="H84">
-        <v>28</v>
+        <v>76</v>
       </c>
       <c r="J84" s="1" t="s">
         <v>284</v>
@@ -7243,28 +7243,28 @@
         <v>90</v>
       </c>
       <c r="B85">
-        <v>0.004086968008932848</v>
+        <v>0.004150271149587475</v>
       </c>
       <c r="C85">
         <v>4</v>
       </c>
       <c r="D85">
-        <v>131</v>
+        <v>33</v>
       </c>
       <c r="E85">
-        <v>0.97</v>
+        <v>0.88</v>
       </c>
       <c r="F85">
-        <v>0.03000000000000003</v>
+        <v>0.12</v>
       </c>
       <c r="G85" t="b">
         <v>1</v>
       </c>
       <c r="H85">
-        <v>29</v>
+        <v>152</v>
       </c>
       <c r="J85" s="1" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="K85">
         <v>0.002488409714856219</v>
@@ -7293,25 +7293,25 @@
         <v>91</v>
       </c>
       <c r="B86">
-        <v>0.004086968008932848</v>
+        <v>0.004150271149587475</v>
       </c>
       <c r="C86">
         <v>4</v>
       </c>
       <c r="D86">
-        <v>36</v>
+        <v>4</v>
       </c>
       <c r="E86">
-        <v>0.89</v>
+        <v>0</v>
       </c>
       <c r="F86">
-        <v>0.11</v>
+        <v>1</v>
       </c>
       <c r="G86" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H86">
-        <v>76</v>
+        <v>22</v>
       </c>
       <c r="J86" s="1" t="s">
         <v>285</v>
@@ -7343,25 +7343,25 @@
         <v>92</v>
       </c>
       <c r="B87">
-        <v>0.004086968008932848</v>
+        <v>0.003594240248136399</v>
       </c>
       <c r="C87">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D87">
-        <v>33</v>
+        <v>3</v>
       </c>
       <c r="E87">
-        <v>0.88</v>
+        <v>0</v>
       </c>
       <c r="F87">
-        <v>0.12</v>
+        <v>1</v>
       </c>
       <c r="G87" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H87">
-        <v>152</v>
+        <v>370</v>
       </c>
       <c r="J87" s="1" t="s">
         <v>286</v>
@@ -7393,13 +7393,13 @@
         <v>93</v>
       </c>
       <c r="B88">
-        <v>0.004086968008932848</v>
+        <v>0.003594240248136399</v>
       </c>
       <c r="C88">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D88">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E88">
         <v>0</v>
@@ -7411,7 +7411,7 @@
         <v>0</v>
       </c>
       <c r="H88">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="J88" s="1" t="s">
         <v>287</v>
@@ -7443,7 +7443,7 @@
         <v>94</v>
       </c>
       <c r="B89">
-        <v>0.003539418120190153</v>
+        <v>0.003594240248136399</v>
       </c>
       <c r="C89">
         <v>3</v>
@@ -7461,10 +7461,10 @@
         <v>0</v>
       </c>
       <c r="H89">
-        <v>370</v>
+        <v>13</v>
       </c>
       <c r="J89" s="1" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="K89">
         <v>0.002422040161797429</v>
@@ -7493,7 +7493,7 @@
         <v>95</v>
       </c>
       <c r="B90">
-        <v>0.003539418120190153</v>
+        <v>0.003594240248136399</v>
       </c>
       <c r="C90">
         <v>3</v>
@@ -7511,10 +7511,10 @@
         <v>0</v>
       </c>
       <c r="H90">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="J90" s="1" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="K90">
         <v>0.002353799945137356</v>
@@ -7543,7 +7543,7 @@
         <v>96</v>
       </c>
       <c r="B91">
-        <v>0.003539418120190153</v>
+        <v>0.003594240248136399</v>
       </c>
       <c r="C91">
         <v>3</v>
@@ -7561,10 +7561,10 @@
         <v>0</v>
       </c>
       <c r="H91">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="J91" s="1" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="K91">
         <v>0.002353799945137356</v>
@@ -7593,7 +7593,7 @@
         <v>97</v>
       </c>
       <c r="B92">
-        <v>0.003539418120190153</v>
+        <v>0.003594240248136399</v>
       </c>
       <c r="C92">
         <v>3</v>
@@ -7643,7 +7643,7 @@
         <v>98</v>
       </c>
       <c r="B93">
-        <v>0.003539418120190153</v>
+        <v>0.003594240248136399</v>
       </c>
       <c r="C93">
         <v>3</v>
@@ -7661,7 +7661,7 @@
         <v>0</v>
       </c>
       <c r="H93">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="J93" s="1" t="s">
         <v>289</v>
@@ -7693,7 +7693,7 @@
         <v>99</v>
       </c>
       <c r="B94">
-        <v>0.003539418120190153</v>
+        <v>0.003594240248136399</v>
       </c>
       <c r="C94">
         <v>3</v>
@@ -7711,7 +7711,7 @@
         <v>0</v>
       </c>
       <c r="H94">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J94" s="1" t="s">
         <v>290</v>
@@ -7743,28 +7743,28 @@
         <v>100</v>
       </c>
       <c r="B95">
-        <v>0.003539418120190153</v>
+        <v>0.003594240248136399</v>
       </c>
       <c r="C95">
         <v>3</v>
       </c>
       <c r="D95">
-        <v>3</v>
+        <v>174</v>
       </c>
       <c r="E95">
-        <v>0</v>
+        <v>0.98</v>
       </c>
       <c r="F95">
-        <v>1</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="G95" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H95">
-        <v>3</v>
+        <v>3027</v>
       </c>
       <c r="J95" s="1" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="K95">
         <v>0.002353799945137356</v>
@@ -7793,28 +7793,28 @@
         <v>101</v>
       </c>
       <c r="B96">
-        <v>0.003539418120190153</v>
+        <v>0.003594240248136399</v>
       </c>
       <c r="C96">
         <v>3</v>
       </c>
       <c r="D96">
-        <v>3</v>
+        <v>47</v>
       </c>
       <c r="E96">
-        <v>0</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F96">
-        <v>1</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G96" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H96">
-        <v>6</v>
+        <v>84</v>
       </c>
       <c r="J96" s="1" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="K96">
         <v>0.0022835213636175</v>
@@ -7843,28 +7843,28 @@
         <v>102</v>
       </c>
       <c r="B97">
-        <v>0.003539418120190153</v>
+        <v>0.003594240248136399</v>
       </c>
       <c r="C97">
         <v>3</v>
       </c>
       <c r="D97">
-        <v>174</v>
+        <v>26</v>
       </c>
       <c r="E97">
-        <v>0.98</v>
+        <v>0.88</v>
       </c>
       <c r="F97">
-        <v>0.02000000000000002</v>
+        <v>0.12</v>
       </c>
       <c r="G97" t="b">
         <v>1</v>
       </c>
       <c r="H97">
-        <v>3027</v>
+        <v>83</v>
       </c>
       <c r="J97" s="1" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="K97">
         <v>0.0022835213636175</v>
@@ -7893,28 +7893,28 @@
         <v>103</v>
       </c>
       <c r="B98">
-        <v>0.003539418120190153</v>
+        <v>0.003594240248136399</v>
       </c>
       <c r="C98">
         <v>3</v>
       </c>
       <c r="D98">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="E98">
-        <v>0.9399999999999999</v>
+        <v>0.92</v>
       </c>
       <c r="F98">
-        <v>0.06000000000000005</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="G98" t="b">
         <v>1</v>
       </c>
       <c r="H98">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="J98" s="1" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="K98">
         <v>0.0022835213636175</v>
@@ -7943,25 +7943,25 @@
         <v>104</v>
       </c>
       <c r="B99">
-        <v>0.003539418120190153</v>
+        <v>0.003594240248136399</v>
       </c>
       <c r="C99">
         <v>3</v>
       </c>
       <c r="D99">
-        <v>26</v>
+        <v>96</v>
       </c>
       <c r="E99">
-        <v>0.88</v>
+        <v>0.97</v>
       </c>
       <c r="F99">
-        <v>0.12</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="G99" t="b">
         <v>1</v>
       </c>
       <c r="H99">
-        <v>83</v>
+        <v>16</v>
       </c>
       <c r="J99" s="1" t="s">
         <v>291</v>
@@ -7993,28 +7993,28 @@
         <v>105</v>
       </c>
       <c r="B100">
-        <v>0.003539418120190153</v>
+        <v>0.003594240248136399</v>
       </c>
       <c r="C100">
         <v>3</v>
       </c>
       <c r="D100">
-        <v>38</v>
+        <v>110</v>
       </c>
       <c r="E100">
-        <v>0.92</v>
+        <v>0.97</v>
       </c>
       <c r="F100">
-        <v>0.07999999999999996</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="G100" t="b">
         <v>1</v>
       </c>
       <c r="H100">
-        <v>96</v>
+        <v>10</v>
       </c>
       <c r="J100" s="1" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="K100">
         <v>0.002211010052999857</v>
@@ -8043,25 +8043,25 @@
         <v>106</v>
       </c>
       <c r="B101">
-        <v>0.003539418120190153</v>
+        <v>0.003594240248136399</v>
       </c>
       <c r="C101">
         <v>3</v>
       </c>
       <c r="D101">
-        <v>96</v>
+        <v>3</v>
       </c>
       <c r="E101">
-        <v>0.97</v>
+        <v>0</v>
       </c>
       <c r="F101">
-        <v>0.03000000000000003</v>
+        <v>1</v>
       </c>
       <c r="G101" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H101">
-        <v>16</v>
+        <v>146</v>
       </c>
       <c r="J101" s="1" t="s">
         <v>292</v>
@@ -8093,25 +8093,25 @@
         <v>107</v>
       </c>
       <c r="B102">
-        <v>0.003539418120190153</v>
+        <v>0.002934684873636192</v>
       </c>
       <c r="C102">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D102">
-        <v>110</v>
+        <v>2</v>
       </c>
       <c r="E102">
-        <v>0.97</v>
+        <v>0</v>
       </c>
       <c r="F102">
-        <v>0.03000000000000003</v>
+        <v>1</v>
       </c>
       <c r="G102" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H102">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="J102" s="1" t="s">
         <v>293</v>
@@ -8143,13 +8143,13 @@
         <v>108</v>
       </c>
       <c r="B103">
-        <v>0.003539418120190153</v>
+        <v>0.002934684873636192</v>
       </c>
       <c r="C103">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D103">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E103">
         <v>0</v>
@@ -8161,7 +8161,7 @@
         <v>0</v>
       </c>
       <c r="H103">
-        <v>146</v>
+        <v>22</v>
       </c>
       <c r="J103" s="1" t="s">
         <v>294</v>
@@ -8193,7 +8193,7 @@
         <v>109</v>
       </c>
       <c r="B104">
-        <v>0.0028899227936089</v>
+        <v>0.002934684873636192</v>
       </c>
       <c r="C104">
         <v>2</v>
@@ -8211,7 +8211,7 @@
         <v>0</v>
       </c>
       <c r="H104">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="J104" s="1" t="s">
         <v>295</v>
@@ -8243,7 +8243,7 @@
         <v>110</v>
       </c>
       <c r="B105">
-        <v>0.0028899227936089</v>
+        <v>0.002934684873636192</v>
       </c>
       <c r="C105">
         <v>2</v>
@@ -8261,10 +8261,10 @@
         <v>0</v>
       </c>
       <c r="H105">
-        <v>22</v>
+        <v>4</v>
       </c>
       <c r="J105" s="1" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="K105">
         <v>0.00213603864450888</v>
@@ -8293,7 +8293,7 @@
         <v>111</v>
       </c>
       <c r="B106">
-        <v>0.0028899227936089</v>
+        <v>0.002934684873636192</v>
       </c>
       <c r="C106">
         <v>2</v>
@@ -8311,7 +8311,7 @@
         <v>0</v>
       </c>
       <c r="H106">
-        <v>4</v>
+        <v>250</v>
       </c>
       <c r="J106" s="1" t="s">
         <v>296</v>
@@ -8343,7 +8343,7 @@
         <v>112</v>
       </c>
       <c r="B107">
-        <v>0.0028899227936089</v>
+        <v>0.002934684873636192</v>
       </c>
       <c r="C107">
         <v>2</v>
@@ -8361,7 +8361,7 @@
         <v>0</v>
       </c>
       <c r="H107">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J107" s="1" t="s">
         <v>297</v>
@@ -8393,7 +8393,7 @@
         <v>113</v>
       </c>
       <c r="B108">
-        <v>0.0028899227936089</v>
+        <v>0.002934684873636192</v>
       </c>
       <c r="C108">
         <v>2</v>
@@ -8411,10 +8411,10 @@
         <v>0</v>
       </c>
       <c r="H108">
-        <v>250</v>
+        <v>4</v>
       </c>
       <c r="J108" s="1" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="K108">
         <v>0.00213603864450888</v>
@@ -8443,7 +8443,7 @@
         <v>114</v>
       </c>
       <c r="B109">
-        <v>0.0028899227936089</v>
+        <v>0.002934684873636192</v>
       </c>
       <c r="C109">
         <v>2</v>
@@ -8461,7 +8461,7 @@
         <v>0</v>
       </c>
       <c r="H109">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="J109" s="1" t="s">
         <v>298</v>
@@ -8493,7 +8493,7 @@
         <v>115</v>
       </c>
       <c r="B110">
-        <v>0.0028899227936089</v>
+        <v>0.002934684873636192</v>
       </c>
       <c r="C110">
         <v>2</v>
@@ -8514,7 +8514,7 @@
         <v>4</v>
       </c>
       <c r="J110" s="1" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="K110">
         <v>0.002058338341285086</v>
@@ -8543,7 +8543,7 @@
         <v>116</v>
       </c>
       <c r="B111">
-        <v>0.0028899227936089</v>
+        <v>0.002934684873636192</v>
       </c>
       <c r="C111">
         <v>2</v>
@@ -8561,7 +8561,7 @@
         <v>0</v>
       </c>
       <c r="H111">
-        <v>11</v>
+        <v>37</v>
       </c>
       <c r="J111" s="1" t="s">
         <v>299</v>
@@ -8593,7 +8593,7 @@
         <v>117</v>
       </c>
       <c r="B112">
-        <v>0.0028899227936089</v>
+        <v>0.002934684873636192</v>
       </c>
       <c r="C112">
         <v>2</v>
@@ -8611,10 +8611,10 @@
         <v>0</v>
       </c>
       <c r="H112">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="J112" s="1" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="K112">
         <v>0.002058338341285086</v>
@@ -8643,28 +8643,28 @@
         <v>118</v>
       </c>
       <c r="B113">
-        <v>0.0028899227936089</v>
+        <v>0.002934684873636192</v>
       </c>
       <c r="C113">
         <v>2</v>
       </c>
       <c r="D113">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="E113">
-        <v>0</v>
+        <v>0.67</v>
       </c>
       <c r="F113">
-        <v>1</v>
+        <v>0.33</v>
       </c>
       <c r="G113" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H113">
-        <v>37</v>
+        <v>64</v>
       </c>
       <c r="J113" s="1" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="K113">
         <v>0.002058338341285086</v>
@@ -8693,25 +8693,25 @@
         <v>119</v>
       </c>
       <c r="B114">
-        <v>0.0028899227936089</v>
+        <v>0.002934684873636192</v>
       </c>
       <c r="C114">
         <v>2</v>
       </c>
       <c r="D114">
-        <v>2</v>
+        <v>90</v>
       </c>
       <c r="E114">
-        <v>0</v>
+        <v>0.98</v>
       </c>
       <c r="F114">
-        <v>1</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="G114" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H114">
-        <v>7</v>
+        <v>218</v>
       </c>
       <c r="J114" s="1" t="s">
         <v>300</v>
@@ -8743,25 +8743,25 @@
         <v>120</v>
       </c>
       <c r="B115">
-        <v>0.0028899227936089</v>
+        <v>0.002934684873636192</v>
       </c>
       <c r="C115">
         <v>2</v>
       </c>
       <c r="D115">
+        <v>2</v>
+      </c>
+      <c r="E115">
+        <v>0</v>
+      </c>
+      <c r="F115">
+        <v>1</v>
+      </c>
+      <c r="G115" t="b">
+        <v>0</v>
+      </c>
+      <c r="H115">
         <v>6</v>
-      </c>
-      <c r="E115">
-        <v>0.67</v>
-      </c>
-      <c r="F115">
-        <v>0.33</v>
-      </c>
-      <c r="G115" t="b">
-        <v>1</v>
-      </c>
-      <c r="H115">
-        <v>64</v>
       </c>
       <c r="J115" s="1" t="s">
         <v>301</v>
@@ -8793,25 +8793,25 @@
         <v>121</v>
       </c>
       <c r="B116">
-        <v>0.0028899227936089</v>
+        <v>0.002934684873636192</v>
       </c>
       <c r="C116">
         <v>2</v>
       </c>
       <c r="D116">
-        <v>90</v>
+        <v>31</v>
       </c>
       <c r="E116">
-        <v>0.98</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F116">
-        <v>0.02000000000000002</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G116" t="b">
         <v>1</v>
       </c>
       <c r="H116">
-        <v>218</v>
+        <v>329</v>
       </c>
       <c r="J116" s="1" t="s">
         <v>302</v>
@@ -8843,25 +8843,25 @@
         <v>122</v>
       </c>
       <c r="B117">
-        <v>0.0028899227936089</v>
+        <v>0.002934684873636192</v>
       </c>
       <c r="C117">
         <v>2</v>
       </c>
       <c r="D117">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="E117">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="F117">
-        <v>1</v>
+        <v>0.25</v>
       </c>
       <c r="G117" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H117">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="J117" s="1" t="s">
         <v>303</v>
@@ -8893,28 +8893,28 @@
         <v>123</v>
       </c>
       <c r="B118">
-        <v>0.0028899227936089</v>
+        <v>0.002934684873636192</v>
       </c>
       <c r="C118">
         <v>2</v>
       </c>
       <c r="D118">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="E118">
-        <v>0.9399999999999999</v>
+        <v>0.88</v>
       </c>
       <c r="F118">
-        <v>0.06000000000000005</v>
+        <v>0.12</v>
       </c>
       <c r="G118" t="b">
         <v>1</v>
       </c>
       <c r="H118">
-        <v>329</v>
+        <v>289</v>
       </c>
       <c r="J118" s="1" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="K118">
         <v>0.001977587510977237</v>
@@ -8943,25 +8943,25 @@
         <v>124</v>
       </c>
       <c r="B119">
-        <v>0.0028899227936089</v>
+        <v>0.002934684873636192</v>
       </c>
       <c r="C119">
         <v>2</v>
       </c>
       <c r="D119">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="E119">
-        <v>0.75</v>
+        <v>0.88</v>
       </c>
       <c r="F119">
-        <v>0.25</v>
+        <v>0.12</v>
       </c>
       <c r="G119" t="b">
         <v>1</v>
       </c>
       <c r="H119">
-        <v>19</v>
+        <v>122</v>
       </c>
       <c r="J119" s="1" t="s">
         <v>304</v>
@@ -8993,28 +8993,28 @@
         <v>125</v>
       </c>
       <c r="B120">
-        <v>0.0028899227936089</v>
+        <v>0.002934684873636192</v>
       </c>
       <c r="C120">
         <v>2</v>
       </c>
       <c r="D120">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="E120">
-        <v>0.88</v>
+        <v>0.92</v>
       </c>
       <c r="F120">
-        <v>0.12</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="G120" t="b">
         <v>1</v>
       </c>
       <c r="H120">
-        <v>289</v>
+        <v>103</v>
       </c>
       <c r="J120" s="1" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="K120">
         <v>0.001977587510977237</v>
@@ -9043,25 +9043,25 @@
         <v>126</v>
       </c>
       <c r="B121">
-        <v>0.0028899227936089</v>
+        <v>0.002934684873636192</v>
       </c>
       <c r="C121">
         <v>2</v>
       </c>
       <c r="D121">
-        <v>16</v>
+        <v>61</v>
       </c>
       <c r="E121">
-        <v>0.88</v>
+        <v>0.97</v>
       </c>
       <c r="F121">
-        <v>0.12</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="G121" t="b">
         <v>1</v>
       </c>
       <c r="H121">
-        <v>122</v>
+        <v>98</v>
       </c>
       <c r="J121" s="1" t="s">
         <v>305</v>
@@ -9093,25 +9093,25 @@
         <v>127</v>
       </c>
       <c r="B122">
-        <v>0.0028899227936089</v>
+        <v>0.002934684873636192</v>
       </c>
       <c r="C122">
         <v>2</v>
       </c>
       <c r="D122">
-        <v>24</v>
+        <v>35</v>
       </c>
       <c r="E122">
-        <v>0.92</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F122">
-        <v>0.07999999999999996</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G122" t="b">
         <v>1</v>
       </c>
       <c r="H122">
-        <v>103</v>
+        <v>30</v>
       </c>
       <c r="J122" s="1" t="s">
         <v>306</v>
@@ -9143,28 +9143,28 @@
         <v>128</v>
       </c>
       <c r="B123">
-        <v>0.0028899227936089</v>
+        <v>0.002934684873636192</v>
       </c>
       <c r="C123">
         <v>2</v>
       </c>
       <c r="D123">
-        <v>61</v>
+        <v>21</v>
       </c>
       <c r="E123">
-        <v>0.97</v>
+        <v>0.9</v>
       </c>
       <c r="F123">
-        <v>0.03000000000000003</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="G123" t="b">
         <v>1</v>
       </c>
       <c r="H123">
-        <v>98</v>
+        <v>151</v>
       </c>
       <c r="J123" s="1" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="K123">
         <v>0.001893395890969992</v>
@@ -9193,25 +9193,25 @@
         <v>129</v>
       </c>
       <c r="B124">
-        <v>0.0028899227936089</v>
+        <v>0.002934684873636192</v>
       </c>
       <c r="C124">
         <v>2</v>
       </c>
       <c r="D124">
-        <v>35</v>
+        <v>128</v>
       </c>
       <c r="E124">
-        <v>0.9399999999999999</v>
+        <v>0.98</v>
       </c>
       <c r="F124">
-        <v>0.06000000000000005</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="G124" t="b">
         <v>1</v>
       </c>
       <c r="H124">
-        <v>30</v>
+        <v>439</v>
       </c>
       <c r="J124" s="1" t="s">
         <v>307</v>
@@ -9243,25 +9243,25 @@
         <v>130</v>
       </c>
       <c r="B125">
-        <v>0.0028899227936089</v>
+        <v>0.002934684873636192</v>
       </c>
       <c r="C125">
         <v>2</v>
       </c>
       <c r="D125">
-        <v>21</v>
+        <v>41</v>
       </c>
       <c r="E125">
-        <v>0.9</v>
+        <v>0.95</v>
       </c>
       <c r="F125">
-        <v>0.09999999999999998</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="G125" t="b">
         <v>1</v>
       </c>
       <c r="H125">
-        <v>151</v>
+        <v>96</v>
       </c>
       <c r="J125" s="1" t="s">
         <v>308</v>
@@ -9293,28 +9293,28 @@
         <v>131</v>
       </c>
       <c r="B126">
-        <v>0.0028899227936089</v>
+        <v>0.002934684873636192</v>
       </c>
       <c r="C126">
         <v>2</v>
       </c>
       <c r="D126">
-        <v>128</v>
+        <v>10</v>
       </c>
       <c r="E126">
-        <v>0.98</v>
+        <v>0.8</v>
       </c>
       <c r="F126">
-        <v>0.02000000000000002</v>
+        <v>0.2</v>
       </c>
       <c r="G126" t="b">
         <v>1</v>
       </c>
       <c r="H126">
-        <v>439</v>
+        <v>24</v>
       </c>
       <c r="J126" s="1" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="K126">
         <v>0.001893395890969992</v>
@@ -9343,25 +9343,25 @@
         <v>132</v>
       </c>
       <c r="B127">
-        <v>0.0028899227936089</v>
+        <v>0.002934684873636192</v>
       </c>
       <c r="C127">
         <v>2</v>
       </c>
       <c r="D127">
-        <v>41</v>
+        <v>8</v>
       </c>
       <c r="E127">
-        <v>0.95</v>
+        <v>0.75</v>
       </c>
       <c r="F127">
-        <v>0.05000000000000004</v>
+        <v>0.25</v>
       </c>
       <c r="G127" t="b">
         <v>1</v>
       </c>
       <c r="H127">
-        <v>96</v>
+        <v>40</v>
       </c>
       <c r="J127" s="1" t="s">
         <v>309</v>
@@ -9393,28 +9393,28 @@
         <v>133</v>
       </c>
       <c r="B128">
-        <v>0.0028899227936089</v>
+        <v>0.002934684873636192</v>
       </c>
       <c r="C128">
         <v>2</v>
       </c>
       <c r="D128">
-        <v>10</v>
+        <v>42</v>
       </c>
       <c r="E128">
-        <v>0.8</v>
+        <v>0.95</v>
       </c>
       <c r="F128">
-        <v>0.2</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="G128" t="b">
         <v>1</v>
       </c>
       <c r="H128">
-        <v>24</v>
+        <v>55</v>
       </c>
       <c r="J128" s="1" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="K128">
         <v>0.001893395890969992</v>
@@ -9443,25 +9443,25 @@
         <v>134</v>
       </c>
       <c r="B129">
-        <v>0.0028899227936089</v>
+        <v>0.002934684873636192</v>
       </c>
       <c r="C129">
         <v>2</v>
       </c>
       <c r="D129">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="E129">
-        <v>0.75</v>
+        <v>0.92</v>
       </c>
       <c r="F129">
-        <v>0.25</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="G129" t="b">
         <v>1</v>
       </c>
       <c r="H129">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="J129" s="1" t="s">
         <v>310</v>
@@ -9493,13 +9493,13 @@
         <v>135</v>
       </c>
       <c r="B130">
-        <v>0.0028899227936089</v>
+        <v>0.002934684873636192</v>
       </c>
       <c r="C130">
         <v>2</v>
       </c>
       <c r="D130">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="E130">
         <v>0.95</v>
@@ -9511,7 +9511,7 @@
         <v>1</v>
       </c>
       <c r="H130">
-        <v>55</v>
+        <v>223</v>
       </c>
       <c r="J130" s="1" t="s">
         <v>311</v>
@@ -9543,28 +9543,28 @@
         <v>136</v>
       </c>
       <c r="B131">
-        <v>0.0028899227936089</v>
+        <v>0.002934684873636192</v>
       </c>
       <c r="C131">
         <v>2</v>
       </c>
       <c r="D131">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="E131">
-        <v>0.92</v>
+        <v>0.83</v>
       </c>
       <c r="F131">
-        <v>0.07999999999999996</v>
+        <v>0.17</v>
       </c>
       <c r="G131" t="b">
         <v>1</v>
       </c>
       <c r="H131">
-        <v>32</v>
+        <v>45</v>
       </c>
       <c r="J131" s="1" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="K131">
         <v>0.001805282148671213</v>
@@ -9593,28 +9593,28 @@
         <v>137</v>
       </c>
       <c r="B132">
-        <v>0.0028899227936089</v>
+        <v>0.002934684873636192</v>
       </c>
       <c r="C132">
         <v>2</v>
       </c>
       <c r="D132">
-        <v>44</v>
+        <v>8</v>
       </c>
       <c r="E132">
-        <v>0.95</v>
+        <v>0.75</v>
       </c>
       <c r="F132">
-        <v>0.05000000000000004</v>
+        <v>0.25</v>
       </c>
       <c r="G132" t="b">
         <v>1</v>
       </c>
       <c r="H132">
-        <v>223</v>
+        <v>74</v>
       </c>
       <c r="J132" s="1" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="K132">
         <v>0.001805282148671213</v>
@@ -9643,25 +9643,25 @@
         <v>138</v>
       </c>
       <c r="B133">
-        <v>0.0028899227936089</v>
+        <v>0.002934684873636192</v>
       </c>
       <c r="C133">
         <v>2</v>
       </c>
       <c r="D133">
-        <v>12</v>
+        <v>66</v>
       </c>
       <c r="E133">
-        <v>0.83</v>
+        <v>0.97</v>
       </c>
       <c r="F133">
-        <v>0.17</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="G133" t="b">
         <v>1</v>
       </c>
       <c r="H133">
-        <v>45</v>
+        <v>97</v>
       </c>
       <c r="J133" s="1" t="s">
         <v>312</v>
@@ -9693,25 +9693,25 @@
         <v>139</v>
       </c>
       <c r="B134">
-        <v>0.0028899227936089</v>
+        <v>0.002934684873636192</v>
       </c>
       <c r="C134">
         <v>2</v>
       </c>
       <c r="D134">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="E134">
-        <v>0.75</v>
+        <v>0.89</v>
       </c>
       <c r="F134">
-        <v>0.25</v>
+        <v>0.11</v>
       </c>
       <c r="G134" t="b">
         <v>1</v>
       </c>
       <c r="H134">
-        <v>74</v>
+        <v>91</v>
       </c>
       <c r="J134" s="1" t="s">
         <v>313</v>
@@ -9743,28 +9743,28 @@
         <v>140</v>
       </c>
       <c r="B135">
-        <v>0.0028899227936089</v>
+        <v>0.002934684873636192</v>
       </c>
       <c r="C135">
         <v>2</v>
       </c>
       <c r="D135">
-        <v>66</v>
+        <v>196</v>
       </c>
       <c r="E135">
-        <v>0.97</v>
+        <v>0.99</v>
       </c>
       <c r="F135">
-        <v>0.03000000000000003</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="G135" t="b">
         <v>1</v>
       </c>
       <c r="H135">
-        <v>97</v>
+        <v>290</v>
       </c>
       <c r="J135" s="1" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="K135">
         <v>0.001805282148671213</v>
@@ -9793,25 +9793,25 @@
         <v>141</v>
       </c>
       <c r="B136">
-        <v>0.0028899227936089</v>
+        <v>0.002934684873636192</v>
       </c>
       <c r="C136">
         <v>2</v>
       </c>
       <c r="D136">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="E136">
-        <v>0.89</v>
+        <v>0.6</v>
       </c>
       <c r="F136">
-        <v>0.11</v>
+        <v>0.4</v>
       </c>
       <c r="G136" t="b">
         <v>1</v>
       </c>
       <c r="H136">
-        <v>91</v>
+        <v>45</v>
       </c>
       <c r="J136" s="1" t="s">
         <v>314</v>
@@ -9843,28 +9843,28 @@
         <v>142</v>
       </c>
       <c r="B137">
-        <v>0.0028899227936089</v>
+        <v>0.002934684873636192</v>
       </c>
       <c r="C137">
         <v>2</v>
       </c>
       <c r="D137">
-        <v>196</v>
+        <v>18</v>
       </c>
       <c r="E137">
-        <v>0.99</v>
+        <v>0.89</v>
       </c>
       <c r="F137">
-        <v>0.01000000000000001</v>
+        <v>0.11</v>
       </c>
       <c r="G137" t="b">
         <v>1</v>
       </c>
       <c r="H137">
-        <v>290</v>
+        <v>950</v>
       </c>
       <c r="J137" s="1" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="K137">
         <v>0.001712641022713125</v>
@@ -9893,25 +9893,25 @@
         <v>143</v>
       </c>
       <c r="B138">
-        <v>0.0028899227936089</v>
+        <v>0.002934684873636192</v>
       </c>
       <c r="C138">
         <v>2</v>
       </c>
       <c r="D138">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="E138">
-        <v>0.6</v>
+        <v>0.92</v>
       </c>
       <c r="F138">
-        <v>0.4</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="G138" t="b">
         <v>1</v>
       </c>
       <c r="H138">
-        <v>45</v>
+        <v>105</v>
       </c>
       <c r="J138" s="1" t="s">
         <v>315</v>
@@ -9943,25 +9943,25 @@
         <v>144</v>
       </c>
       <c r="B139">
-        <v>0.0028899227936089</v>
+        <v>0.002934684873636192</v>
       </c>
       <c r="C139">
         <v>2</v>
       </c>
       <c r="D139">
-        <v>18</v>
+        <v>39</v>
       </c>
       <c r="E139">
-        <v>0.89</v>
+        <v>0.95</v>
       </c>
       <c r="F139">
-        <v>0.11</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="G139" t="b">
         <v>1</v>
       </c>
       <c r="H139">
-        <v>950</v>
+        <v>198</v>
       </c>
       <c r="J139" s="1" t="s">
         <v>316</v>
@@ -9993,25 +9993,25 @@
         <v>145</v>
       </c>
       <c r="B140">
-        <v>0.0028899227936089</v>
+        <v>0.002934684873636192</v>
       </c>
       <c r="C140">
         <v>2</v>
       </c>
       <c r="D140">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="E140">
-        <v>0.92</v>
+        <v>0.89</v>
       </c>
       <c r="F140">
-        <v>0.07999999999999996</v>
+        <v>0.11</v>
       </c>
       <c r="G140" t="b">
         <v>1</v>
       </c>
       <c r="H140">
-        <v>105</v>
+        <v>46</v>
       </c>
       <c r="J140" s="1" t="s">
         <v>317</v>
@@ -10043,25 +10043,25 @@
         <v>146</v>
       </c>
       <c r="B141">
-        <v>0.0028899227936089</v>
+        <v>0.002934684873636192</v>
       </c>
       <c r="C141">
         <v>2</v>
       </c>
       <c r="D141">
-        <v>39</v>
+        <v>19</v>
       </c>
       <c r="E141">
-        <v>0.95</v>
+        <v>0.89</v>
       </c>
       <c r="F141">
-        <v>0.05000000000000004</v>
+        <v>0.11</v>
       </c>
       <c r="G141" t="b">
         <v>1</v>
       </c>
       <c r="H141">
-        <v>198</v>
+        <v>118</v>
       </c>
       <c r="J141" s="1" t="s">
         <v>318</v>
@@ -10093,25 +10093,25 @@
         <v>147</v>
       </c>
       <c r="B142">
-        <v>0.0028899227936089</v>
+        <v>0.002934684873636192</v>
       </c>
       <c r="C142">
         <v>2</v>
       </c>
       <c r="D142">
-        <v>19</v>
+        <v>70</v>
       </c>
       <c r="E142">
-        <v>0.89</v>
+        <v>0.97</v>
       </c>
       <c r="F142">
-        <v>0.11</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="G142" t="b">
         <v>1</v>
       </c>
       <c r="H142">
-        <v>46</v>
+        <v>12</v>
       </c>
       <c r="J142" s="1" t="s">
         <v>319</v>
@@ -10143,28 +10143,28 @@
         <v>148</v>
       </c>
       <c r="B143">
-        <v>0.0028899227936089</v>
+        <v>0.002934684873636192</v>
       </c>
       <c r="C143">
         <v>2</v>
       </c>
       <c r="D143">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="E143">
-        <v>0.89</v>
+        <v>0.87</v>
       </c>
       <c r="F143">
-        <v>0.11</v>
+        <v>0.13</v>
       </c>
       <c r="G143" t="b">
         <v>1</v>
       </c>
       <c r="H143">
-        <v>118</v>
+        <v>64</v>
       </c>
       <c r="J143" s="1" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="K143">
         <v>0.001712641022713125</v>
@@ -10193,25 +10193,25 @@
         <v>149</v>
       </c>
       <c r="B144">
-        <v>0.0028899227936089</v>
+        <v>0.002934684873636192</v>
       </c>
       <c r="C144">
         <v>2</v>
       </c>
       <c r="D144">
-        <v>70</v>
+        <v>30</v>
       </c>
       <c r="E144">
-        <v>0.97</v>
+        <v>0.93</v>
       </c>
       <c r="F144">
-        <v>0.03000000000000003</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="G144" t="b">
         <v>1</v>
       </c>
       <c r="H144">
-        <v>12</v>
+        <v>89</v>
       </c>
       <c r="J144" s="1" t="s">
         <v>320</v>
@@ -10243,25 +10243,25 @@
         <v>150</v>
       </c>
       <c r="B145">
-        <v>0.0028899227936089</v>
+        <v>0.002934684873636192</v>
       </c>
       <c r="C145">
         <v>2</v>
       </c>
       <c r="D145">
-        <v>15</v>
+        <v>60</v>
       </c>
       <c r="E145">
-        <v>0.87</v>
+        <v>0.97</v>
       </c>
       <c r="F145">
-        <v>0.13</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="G145" t="b">
         <v>1</v>
       </c>
       <c r="H145">
-        <v>64</v>
+        <v>155</v>
       </c>
       <c r="J145" s="1" t="s">
         <v>321</v>
@@ -10293,25 +10293,25 @@
         <v>151</v>
       </c>
       <c r="B146">
-        <v>0.0028899227936089</v>
+        <v>0.002075135574793737</v>
       </c>
       <c r="C146">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D146">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="E146">
-        <v>0.93</v>
+        <v>0</v>
       </c>
       <c r="F146">
-        <v>0.06999999999999995</v>
+        <v>1</v>
       </c>
       <c r="G146" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H146">
-        <v>89</v>
+        <v>16</v>
       </c>
       <c r="J146" s="1" t="s">
         <v>322</v>
@@ -10343,28 +10343,28 @@
         <v>152</v>
       </c>
       <c r="B147">
-        <v>0.0028899227936089</v>
+        <v>0.002075135574793737</v>
       </c>
       <c r="C147">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D147">
-        <v>60</v>
+        <v>1</v>
       </c>
       <c r="E147">
-        <v>0.97</v>
+        <v>0</v>
       </c>
       <c r="F147">
-        <v>0.03000000000000003</v>
+        <v>1</v>
       </c>
       <c r="G147" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H147">
-        <v>155</v>
+        <v>5</v>
       </c>
       <c r="J147" s="1" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="K147">
         <v>0.001614693441198286</v>
@@ -10393,25 +10393,25 @@
         <v>153</v>
       </c>
       <c r="B148">
-        <v>0.002043484004466424</v>
+        <v>0.002075135574793737</v>
       </c>
       <c r="C148">
         <v>1</v>
       </c>
       <c r="D148">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E148">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="F148">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G148" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H148">
-        <v>16</v>
+        <v>187</v>
       </c>
       <c r="J148" s="1" t="s">
         <v>323</v>
@@ -10443,25 +10443,25 @@
         <v>154</v>
       </c>
       <c r="B149">
-        <v>0.002043484004466424</v>
+        <v>0.002075135574793737</v>
       </c>
       <c r="C149">
         <v>1</v>
       </c>
       <c r="D149">
-        <v>1</v>
+        <v>19</v>
       </c>
       <c r="E149">
-        <v>0</v>
+        <v>0.95</v>
       </c>
       <c r="F149">
-        <v>1</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="G149" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H149">
-        <v>5</v>
+        <v>526</v>
       </c>
       <c r="J149" s="1" t="s">
         <v>324</v>
@@ -10493,25 +10493,25 @@
         <v>155</v>
       </c>
       <c r="B150">
-        <v>0.002043484004466424</v>
+        <v>0.002075135574793737</v>
       </c>
       <c r="C150">
         <v>1</v>
       </c>
       <c r="D150">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E150">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="F150">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G150" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H150">
-        <v>187</v>
+        <v>18</v>
       </c>
       <c r="J150" s="1" t="s">
         <v>325</v>
@@ -10543,25 +10543,25 @@
         <v>156</v>
       </c>
       <c r="B151">
-        <v>0.002043484004466424</v>
+        <v>0.002075135574793737</v>
       </c>
       <c r="C151">
         <v>1</v>
       </c>
       <c r="D151">
-        <v>19</v>
+        <v>1</v>
       </c>
       <c r="E151">
-        <v>0.95</v>
+        <v>0</v>
       </c>
       <c r="F151">
-        <v>0.05000000000000004</v>
+        <v>1</v>
       </c>
       <c r="G151" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H151">
-        <v>526</v>
+        <v>9</v>
       </c>
       <c r="J151" s="1" t="s">
         <v>326</v>
@@ -10593,7 +10593,7 @@
         <v>157</v>
       </c>
       <c r="B152">
-        <v>0.002043484004466424</v>
+        <v>0.002075135574793737</v>
       </c>
       <c r="C152">
         <v>1</v>
@@ -10611,10 +10611,10 @@
         <v>0</v>
       </c>
       <c r="H152">
-        <v>18</v>
+        <v>165</v>
       </c>
       <c r="J152" s="1" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="K152">
         <v>0.001614693441198286</v>
@@ -10643,7 +10643,7 @@
         <v>158</v>
       </c>
       <c r="B153">
-        <v>0.002043484004466424</v>
+        <v>0.002075135574793737</v>
       </c>
       <c r="C153">
         <v>1</v>
@@ -10661,7 +10661,7 @@
         <v>0</v>
       </c>
       <c r="H153">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="J153" s="1" t="s">
         <v>327</v>
@@ -10693,28 +10693,28 @@
         <v>159</v>
       </c>
       <c r="B154">
-        <v>0.002043484004466424</v>
+        <v>0.002075135574793737</v>
       </c>
       <c r="C154">
         <v>1</v>
       </c>
       <c r="D154">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E154">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="F154">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G154" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H154">
-        <v>165</v>
+        <v>40</v>
       </c>
       <c r="J154" s="1" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="K154">
         <v>0.001614693441198286</v>
@@ -10743,25 +10743,25 @@
         <v>160</v>
       </c>
       <c r="B155">
-        <v>0.002043484004466424</v>
+        <v>0.002075135574793737</v>
       </c>
       <c r="C155">
         <v>1</v>
       </c>
       <c r="D155">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="E155">
-        <v>0</v>
+        <v>0.92</v>
       </c>
       <c r="F155">
-        <v>1</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="G155" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H155">
-        <v>14</v>
+        <v>51</v>
       </c>
       <c r="J155" s="1" t="s">
         <v>328</v>
@@ -10793,25 +10793,25 @@
         <v>161</v>
       </c>
       <c r="B156">
-        <v>0.002043484004466424</v>
+        <v>0.002075135574793737</v>
       </c>
       <c r="C156">
         <v>1</v>
       </c>
       <c r="D156">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E156">
-        <v>0.5</v>
+        <v>0.67</v>
       </c>
       <c r="F156">
-        <v>0.5</v>
+        <v>0.33</v>
       </c>
       <c r="G156" t="b">
         <v>1</v>
       </c>
       <c r="H156">
-        <v>40</v>
+        <v>24</v>
       </c>
       <c r="J156" s="1" t="s">
         <v>329</v>
@@ -10843,25 +10843,25 @@
         <v>162</v>
       </c>
       <c r="B157">
-        <v>0.002043484004466424</v>
+        <v>0.002075135574793737</v>
       </c>
       <c r="C157">
         <v>1</v>
       </c>
       <c r="D157">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="E157">
-        <v>0.92</v>
+        <v>0.75</v>
       </c>
       <c r="F157">
-        <v>0.07999999999999996</v>
+        <v>0.25</v>
       </c>
       <c r="G157" t="b">
         <v>1</v>
       </c>
       <c r="H157">
-        <v>51</v>
+        <v>14</v>
       </c>
       <c r="J157" s="1" t="s">
         <v>330</v>
@@ -10893,25 +10893,25 @@
         <v>163</v>
       </c>
       <c r="B158">
-        <v>0.002043484004466424</v>
+        <v>0.002075135574793737</v>
       </c>
       <c r="C158">
         <v>1</v>
       </c>
       <c r="D158">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E158">
-        <v>0.67</v>
+        <v>0.5</v>
       </c>
       <c r="F158">
-        <v>0.33</v>
+        <v>0.5</v>
       </c>
       <c r="G158" t="b">
         <v>1</v>
       </c>
       <c r="H158">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J158" s="1" t="s">
         <v>331</v>
@@ -10943,25 +10943,25 @@
         <v>164</v>
       </c>
       <c r="B159">
-        <v>0.002043484004466424</v>
+        <v>0.002075135574793737</v>
       </c>
       <c r="C159">
         <v>1</v>
       </c>
       <c r="D159">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E159">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="F159">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="G159" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H159">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="J159" s="1" t="s">
         <v>332</v>
@@ -10993,25 +10993,25 @@
         <v>165</v>
       </c>
       <c r="B160">
-        <v>0.002043484004466424</v>
+        <v>0.002075135574793737</v>
       </c>
       <c r="C160">
         <v>1</v>
       </c>
       <c r="D160">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E160">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="F160">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="G160" t="b">
         <v>1</v>
       </c>
       <c r="H160">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="J160" s="1" t="s">
         <v>333</v>
@@ -11043,28 +11043,28 @@
         <v>166</v>
       </c>
       <c r="B161">
-        <v>0.002043484004466424</v>
+        <v>0.002075135574793737</v>
       </c>
       <c r="C161">
         <v>1</v>
       </c>
       <c r="D161">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E161">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="F161">
-        <v>1</v>
+        <v>0.25</v>
       </c>
       <c r="G161" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H161">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="J161" s="1" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="K161">
         <v>0.00151040741040875</v>
@@ -11093,25 +11093,25 @@
         <v>167</v>
       </c>
       <c r="B162">
-        <v>0.002043484004466424</v>
+        <v>0.002075135574793737</v>
       </c>
       <c r="C162">
         <v>1</v>
       </c>
       <c r="D162">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E162">
-        <v>0.75</v>
+        <v>0.5</v>
       </c>
       <c r="F162">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="G162" t="b">
         <v>1</v>
       </c>
       <c r="H162">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="J162" s="1" t="s">
         <v>334</v>
@@ -11143,7 +11143,7 @@
         <v>168</v>
       </c>
       <c r="B163">
-        <v>0.002043484004466424</v>
+        <v>0.002075135574793737</v>
       </c>
       <c r="C163">
         <v>1</v>
@@ -11161,7 +11161,7 @@
         <v>1</v>
       </c>
       <c r="H163">
-        <v>30</v>
+        <v>11</v>
       </c>
       <c r="J163" s="1" t="s">
         <v>335</v>
@@ -11193,28 +11193,28 @@
         <v>169</v>
       </c>
       <c r="B164">
-        <v>0.002043484004466424</v>
+        <v>0.002075135574793737</v>
       </c>
       <c r="C164">
         <v>1</v>
       </c>
       <c r="D164">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E164">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="F164">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G164" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H164">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="J164" s="1" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="K164">
         <v>0.00151040741040875</v>
@@ -11243,28 +11243,28 @@
         <v>170</v>
       </c>
       <c r="B165">
-        <v>0.002043484004466424</v>
+        <v>0.002075135574793737</v>
       </c>
       <c r="C165">
         <v>1</v>
       </c>
       <c r="D165">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E165">
-        <v>0.75</v>
+        <v>0.5</v>
       </c>
       <c r="F165">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="G165" t="b">
         <v>1</v>
       </c>
       <c r="H165">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="J165" s="1" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="K165">
         <v>0.00151040741040875</v>
@@ -11293,25 +11293,25 @@
         <v>171</v>
       </c>
       <c r="B166">
-        <v>0.002043484004466424</v>
+        <v>0.002075135574793737</v>
       </c>
       <c r="C166">
         <v>1</v>
       </c>
       <c r="D166">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E166">
-        <v>0</v>
+        <v>0.67</v>
       </c>
       <c r="F166">
-        <v>1</v>
+        <v>0.33</v>
       </c>
       <c r="G166" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H166">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="J166" s="1" t="s">
         <v>336</v>
@@ -11343,7 +11343,7 @@
         <v>172</v>
       </c>
       <c r="B167">
-        <v>0.002043484004466424</v>
+        <v>0.002075135574793737</v>
       </c>
       <c r="C167">
         <v>1</v>
@@ -11361,10 +11361,10 @@
         <v>1</v>
       </c>
       <c r="H167">
-        <v>22</v>
+        <v>4</v>
       </c>
       <c r="J167" s="1" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="K167">
         <v>0.00139836553940183</v>
@@ -11393,28 +11393,28 @@
         <v>173</v>
       </c>
       <c r="B168">
-        <v>0.002043484004466424</v>
+        <v>0.002075135574793737</v>
       </c>
       <c r="C168">
         <v>1</v>
       </c>
       <c r="D168">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E168">
-        <v>0.67</v>
+        <v>0</v>
       </c>
       <c r="F168">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="G168" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H168">
         <v>13</v>
       </c>
       <c r="J168" s="1" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="K168">
         <v>0.00139836553940183</v>
@@ -11443,25 +11443,25 @@
         <v>174</v>
       </c>
       <c r="B169">
-        <v>0.002043484004466424</v>
+        <v>0.002075135574793737</v>
       </c>
       <c r="C169">
         <v>1</v>
       </c>
       <c r="D169">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E169">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="F169">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G169" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H169">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="J169" s="1" t="s">
         <v>337</v>
@@ -11493,25 +11493,25 @@
         <v>175</v>
       </c>
       <c r="B170">
-        <v>0.002043484004466424</v>
+        <v>0.002075135574793737</v>
       </c>
       <c r="C170">
         <v>1</v>
       </c>
       <c r="D170">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E170">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="F170">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G170" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H170">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="J170" s="1" t="s">
         <v>338</v>
@@ -11543,28 +11543,28 @@
         <v>176</v>
       </c>
       <c r="B171">
-        <v>0.002043484004466424</v>
+        <v>0.002075135574793737</v>
       </c>
       <c r="C171">
         <v>1</v>
       </c>
       <c r="D171">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E171">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="F171">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G171" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H171">
-        <v>10</v>
+        <v>57</v>
       </c>
       <c r="J171" s="1" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="K171">
         <v>0.00139836553940183</v>
@@ -11593,28 +11593,28 @@
         <v>177</v>
       </c>
       <c r="B172">
-        <v>0.002043484004466424</v>
+        <v>0.002075135574793737</v>
       </c>
       <c r="C172">
         <v>1</v>
       </c>
       <c r="D172">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E172">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="F172">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G172" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H172">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="J172" s="1" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="K172">
         <v>0.00139836553940183</v>
@@ -11643,25 +11643,25 @@
         <v>178</v>
       </c>
       <c r="B173">
-        <v>0.002043484004466424</v>
+        <v>0.002075135574793737</v>
       </c>
       <c r="C173">
         <v>1</v>
       </c>
       <c r="D173">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E173">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="F173">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="G173" t="b">
         <v>1</v>
       </c>
       <c r="H173">
-        <v>57</v>
+        <v>41</v>
       </c>
       <c r="J173" s="1" t="s">
         <v>339</v>
@@ -11693,25 +11693,25 @@
         <v>179</v>
       </c>
       <c r="B174">
-        <v>0.002043484004466424</v>
+        <v>0.002075135574793737</v>
       </c>
       <c r="C174">
         <v>1</v>
       </c>
       <c r="D174">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E174">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="F174">
-        <v>1</v>
+        <v>0.25</v>
       </c>
       <c r="G174" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H174">
-        <v>6</v>
+        <v>22</v>
       </c>
       <c r="J174" s="1" t="s">
         <v>340</v>
@@ -11743,25 +11743,25 @@
         <v>180</v>
       </c>
       <c r="B175">
-        <v>0.002043484004466424</v>
+        <v>0.002075135574793737</v>
       </c>
       <c r="C175">
         <v>1</v>
       </c>
       <c r="D175">
-        <v>4</v>
+        <v>42</v>
       </c>
       <c r="E175">
-        <v>0.75</v>
+        <v>0.98</v>
       </c>
       <c r="F175">
-        <v>0.25</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="G175" t="b">
         <v>1</v>
       </c>
       <c r="H175">
-        <v>41</v>
+        <v>16</v>
       </c>
       <c r="J175" s="1" t="s">
         <v>341</v>
@@ -11793,25 +11793,25 @@
         <v>181</v>
       </c>
       <c r="B176">
-        <v>0.002043484004466424</v>
+        <v>0.002075135574793737</v>
       </c>
       <c r="C176">
         <v>1</v>
       </c>
       <c r="D176">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E176">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="F176">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="G176" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H176">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="J176" s="1" t="s">
         <v>342</v>
@@ -11843,28 +11843,28 @@
         <v>182</v>
       </c>
       <c r="B177">
-        <v>0.002043484004466424</v>
+        <v>0.002075135574793737</v>
       </c>
       <c r="C177">
         <v>1</v>
       </c>
       <c r="D177">
-        <v>42</v>
+        <v>15</v>
       </c>
       <c r="E177">
-        <v>0.98</v>
+        <v>0.93</v>
       </c>
       <c r="F177">
-        <v>0.02000000000000002</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="G177" t="b">
         <v>1</v>
       </c>
       <c r="H177">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="J177" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="K177">
         <v>0.00139836553940183</v>
@@ -11893,25 +11893,25 @@
         <v>183</v>
       </c>
       <c r="B178">
-        <v>0.002043484004466424</v>
+        <v>0.002075135574793737</v>
       </c>
       <c r="C178">
         <v>1</v>
       </c>
       <c r="D178">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E178">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="F178">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G178" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H178">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="J178" s="1" t="s">
         <v>343</v>
@@ -11943,25 +11943,25 @@
         <v>184</v>
       </c>
       <c r="B179">
-        <v>0.002043484004466424</v>
+        <v>0.002075135574793737</v>
       </c>
       <c r="C179">
         <v>1</v>
       </c>
       <c r="D179">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="E179">
-        <v>0.93</v>
+        <v>0.75</v>
       </c>
       <c r="F179">
-        <v>0.06999999999999995</v>
+        <v>0.25</v>
       </c>
       <c r="G179" t="b">
         <v>1</v>
       </c>
       <c r="H179">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="J179" s="1" t="s">
         <v>344</v>
@@ -11993,25 +11993,25 @@
         <v>185</v>
       </c>
       <c r="B180">
-        <v>0.002043484004466424</v>
+        <v>0.002075135574793737</v>
       </c>
       <c r="C180">
         <v>1</v>
       </c>
       <c r="D180">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E180">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="F180">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G180" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H180">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="J180" s="1" t="s">
         <v>345</v>
@@ -12043,25 +12043,25 @@
         <v>186</v>
       </c>
       <c r="B181">
-        <v>0.002043484004466424</v>
+        <v>0.002075135574793737</v>
       </c>
       <c r="C181">
         <v>1</v>
       </c>
       <c r="D181">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E181">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="F181">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="G181" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H181">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="J181" s="1" t="s">
         <v>346</v>
@@ -12093,7 +12093,7 @@
         <v>187</v>
       </c>
       <c r="B182">
-        <v>0.002043484004466424</v>
+        <v>0.002075135574793737</v>
       </c>
       <c r="C182">
         <v>1</v>
@@ -12111,7 +12111,7 @@
         <v>0</v>
       </c>
       <c r="H182">
-        <v>15</v>
+        <v>40</v>
       </c>
       <c r="J182" s="1" t="s">
         <v>347</v>
@@ -12143,28 +12143,28 @@
         <v>188</v>
       </c>
       <c r="B183">
-        <v>0.002043484004466424</v>
+        <v>0.002075135574793737</v>
       </c>
       <c r="C183">
         <v>1</v>
       </c>
       <c r="D183">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E183">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="F183">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G183" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H183">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J183" s="1" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="K183">
         <v>0.001276527249280436</v>
@@ -12193,25 +12193,25 @@
         <v>189</v>
       </c>
       <c r="B184">
-        <v>0.002043484004466424</v>
+        <v>0.002075135574793737</v>
       </c>
       <c r="C184">
         <v>1</v>
       </c>
       <c r="D184">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E184">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="F184">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G184" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H184">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="J184" s="1" t="s">
         <v>348</v>
@@ -12243,7 +12243,7 @@
         <v>190</v>
       </c>
       <c r="B185">
-        <v>0.002043484004466424</v>
+        <v>0.002075135574793737</v>
       </c>
       <c r="C185">
         <v>1</v>
@@ -12261,7 +12261,7 @@
         <v>1</v>
       </c>
       <c r="H185">
-        <v>18</v>
+        <v>38</v>
       </c>
       <c r="J185" s="1" t="s">
         <v>349</v>
@@ -12293,25 +12293,25 @@
         <v>191</v>
       </c>
       <c r="B186">
-        <v>0.002043484004466424</v>
+        <v>0.002075135574793737</v>
       </c>
       <c r="C186">
         <v>1</v>
       </c>
       <c r="D186">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="E186">
-        <v>0.5</v>
+        <v>0.89</v>
       </c>
       <c r="F186">
-        <v>0.5</v>
+        <v>0.11</v>
       </c>
       <c r="G186" t="b">
         <v>1</v>
       </c>
       <c r="H186">
-        <v>27</v>
+        <v>44</v>
       </c>
       <c r="J186" s="1" t="s">
         <v>350</v>
@@ -12343,28 +12343,28 @@
         <v>192</v>
       </c>
       <c r="B187">
-        <v>0.002043484004466424</v>
+        <v>0.002075135574793737</v>
       </c>
       <c r="C187">
         <v>1</v>
       </c>
       <c r="D187">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E187">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="F187">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G187" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H187">
         <v>38</v>
       </c>
       <c r="J187" s="1" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="K187">
         <v>0.001276527249280436</v>
@@ -12393,25 +12393,25 @@
         <v>193</v>
       </c>
       <c r="B188">
-        <v>0.002043484004466424</v>
+        <v>0.002075135574793737</v>
       </c>
       <c r="C188">
         <v>1</v>
       </c>
       <c r="D188">
-        <v>9</v>
+        <v>32</v>
       </c>
       <c r="E188">
-        <v>0.89</v>
+        <v>0.97</v>
       </c>
       <c r="F188">
-        <v>0.11</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="G188" t="b">
         <v>1</v>
       </c>
       <c r="H188">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="J188" s="1" t="s">
         <v>351</v>
@@ -12443,25 +12443,25 @@
         <v>194</v>
       </c>
       <c r="B189">
-        <v>0.002043484004466424</v>
+        <v>0.002075135574793737</v>
       </c>
       <c r="C189">
         <v>1</v>
       </c>
       <c r="D189">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="E189">
-        <v>0</v>
+        <v>0.86</v>
       </c>
       <c r="F189">
-        <v>1</v>
+        <v>0.14</v>
       </c>
       <c r="G189" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H189">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="J189" s="1" t="s">
         <v>352</v>
@@ -12493,25 +12493,25 @@
         <v>195</v>
       </c>
       <c r="B190">
-        <v>0.002043484004466424</v>
+        <v>0.002075135574793737</v>
       </c>
       <c r="C190">
         <v>1</v>
       </c>
       <c r="D190">
-        <v>32</v>
+        <v>3</v>
       </c>
       <c r="E190">
-        <v>0.97</v>
+        <v>0.67</v>
       </c>
       <c r="F190">
-        <v>0.03000000000000003</v>
+        <v>0.33</v>
       </c>
       <c r="G190" t="b">
         <v>1</v>
       </c>
       <c r="H190">
-        <v>80</v>
+        <v>28</v>
       </c>
       <c r="J190" s="1" t="s">
         <v>353</v>
@@ -12543,25 +12543,25 @@
         <v>196</v>
       </c>
       <c r="B191">
-        <v>0.002043484004466424</v>
+        <v>0.002075135574793737</v>
       </c>
       <c r="C191">
         <v>1</v>
       </c>
       <c r="D191">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="E191">
-        <v>0.86</v>
+        <v>0.5</v>
       </c>
       <c r="F191">
-        <v>0.14</v>
+        <v>0.5</v>
       </c>
       <c r="G191" t="b">
         <v>1</v>
       </c>
       <c r="H191">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="J191" s="1" t="s">
         <v>354</v>
@@ -12593,28 +12593,28 @@
         <v>197</v>
       </c>
       <c r="B192">
-        <v>0.002043484004466424</v>
+        <v>0.002075135574793737</v>
       </c>
       <c r="C192">
         <v>1</v>
       </c>
       <c r="D192">
-        <v>3</v>
+        <v>32</v>
       </c>
       <c r="E192">
-        <v>0.67</v>
+        <v>0.97</v>
       </c>
       <c r="F192">
-        <v>0.33</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="G192" t="b">
         <v>1</v>
       </c>
       <c r="H192">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="J192" s="1" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="K192">
         <v>0.001276527249280436</v>
@@ -12643,7 +12643,7 @@
         <v>198</v>
       </c>
       <c r="B193">
-        <v>0.002043484004466424</v>
+        <v>0.002075135574793737</v>
       </c>
       <c r="C193">
         <v>1</v>
@@ -12661,7 +12661,7 @@
         <v>1</v>
       </c>
       <c r="H193">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="J193" s="1" t="s">
         <v>355</v>
@@ -12693,25 +12693,25 @@
         <v>199</v>
       </c>
       <c r="B194">
-        <v>0.002043484004466424</v>
+        <v>0.002075135574793737</v>
       </c>
       <c r="C194">
         <v>1</v>
       </c>
       <c r="D194">
-        <v>32</v>
+        <v>6</v>
       </c>
       <c r="E194">
-        <v>0.97</v>
+        <v>0.83</v>
       </c>
       <c r="F194">
-        <v>0.03000000000000003</v>
+        <v>0.17</v>
       </c>
       <c r="G194" t="b">
         <v>1</v>
       </c>
       <c r="H194">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="J194" s="1" t="s">
         <v>356</v>
@@ -12743,28 +12743,28 @@
         <v>200</v>
       </c>
       <c r="B195">
-        <v>0.002043484004466424</v>
+        <v>0.002075135574793737</v>
       </c>
       <c r="C195">
         <v>1</v>
       </c>
       <c r="D195">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E195">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="F195">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G195" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H195">
-        <v>14</v>
+        <v>55</v>
       </c>
       <c r="J195" s="1" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="K195">
         <v>0.001276527249280436</v>
@@ -12793,25 +12793,25 @@
         <v>201</v>
       </c>
       <c r="B196">
-        <v>0.002043484004466424</v>
+        <v>0.002075135574793737</v>
       </c>
       <c r="C196">
         <v>1</v>
       </c>
       <c r="D196">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E196">
-        <v>0.83</v>
+        <v>0.88</v>
       </c>
       <c r="F196">
-        <v>0.17</v>
+        <v>0.12</v>
       </c>
       <c r="G196" t="b">
         <v>1</v>
       </c>
       <c r="H196">
-        <v>25</v>
+        <v>68</v>
       </c>
       <c r="J196" s="1" t="s">
         <v>357</v>
@@ -12843,25 +12843,25 @@
         <v>202</v>
       </c>
       <c r="B197">
-        <v>0.002043484004466424</v>
+        <v>0.002075135574793737</v>
       </c>
       <c r="C197">
         <v>1</v>
       </c>
       <c r="D197">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="E197">
-        <v>0</v>
+        <v>0.9</v>
       </c>
       <c r="F197">
-        <v>1</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="G197" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H197">
-        <v>55</v>
+        <v>19</v>
       </c>
       <c r="J197" s="1" t="s">
         <v>358</v>
@@ -12893,25 +12893,25 @@
         <v>203</v>
       </c>
       <c r="B198">
-        <v>0.002043484004466424</v>
+        <v>0.002075135574793737</v>
       </c>
       <c r="C198">
         <v>1</v>
       </c>
       <c r="D198">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="E198">
-        <v>0.88</v>
+        <v>0.96</v>
       </c>
       <c r="F198">
-        <v>0.12</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="G198" t="b">
         <v>1</v>
       </c>
       <c r="H198">
-        <v>68</v>
+        <v>50</v>
       </c>
       <c r="J198" s="1" t="s">
         <v>359</v>
@@ -12943,28 +12943,28 @@
         <v>204</v>
       </c>
       <c r="B199">
-        <v>0.002043484004466424</v>
+        <v>0.002075135574793737</v>
       </c>
       <c r="C199">
         <v>1</v>
       </c>
       <c r="D199">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="E199">
-        <v>0.9</v>
+        <v>0.67</v>
       </c>
       <c r="F199">
-        <v>0.09999999999999998</v>
+        <v>0.33</v>
       </c>
       <c r="G199" t="b">
         <v>1</v>
       </c>
       <c r="H199">
-        <v>19</v>
+        <v>105</v>
       </c>
       <c r="J199" s="1" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="K199">
         <v>0.001276527249280436</v>
@@ -12993,25 +12993,25 @@
         <v>205</v>
       </c>
       <c r="B200">
-        <v>0.002043484004466424</v>
+        <v>0.002075135574793737</v>
       </c>
       <c r="C200">
         <v>1</v>
       </c>
       <c r="D200">
-        <v>23</v>
+        <v>6</v>
       </c>
       <c r="E200">
-        <v>0.96</v>
+        <v>0.83</v>
       </c>
       <c r="F200">
-        <v>0.04000000000000004</v>
+        <v>0.17</v>
       </c>
       <c r="G200" t="b">
         <v>1</v>
       </c>
       <c r="H200">
-        <v>50</v>
+        <v>17</v>
       </c>
       <c r="J200" s="1" t="s">
         <v>360</v>
@@ -13043,7 +13043,7 @@
         <v>206</v>
       </c>
       <c r="B201">
-        <v>0.002043484004466424</v>
+        <v>0.002075135574793737</v>
       </c>
       <c r="C201">
         <v>1</v>
@@ -13061,7 +13061,7 @@
         <v>1</v>
       </c>
       <c r="H201">
-        <v>105</v>
+        <v>290</v>
       </c>
       <c r="J201" s="1" t="s">
         <v>361</v>
@@ -13093,19 +13093,19 @@
         <v>207</v>
       </c>
       <c r="B202">
-        <v>0.002043484004466424</v>
+        <v>0.002075135574793737</v>
       </c>
       <c r="C202">
         <v>1</v>
       </c>
       <c r="D202">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E202">
-        <v>0.83</v>
+        <v>0.8</v>
       </c>
       <c r="F202">
-        <v>0.17</v>
+        <v>0.2</v>
       </c>
       <c r="G202" t="b">
         <v>1</v>
@@ -13143,25 +13143,25 @@
         <v>208</v>
       </c>
       <c r="B203">
-        <v>0.002043484004466424</v>
+        <v>0.002075135574793737</v>
       </c>
       <c r="C203">
         <v>1</v>
       </c>
       <c r="D203">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E203">
-        <v>0.67</v>
+        <v>0.8</v>
       </c>
       <c r="F203">
-        <v>0.33</v>
+        <v>0.2</v>
       </c>
       <c r="G203" t="b">
         <v>1</v>
       </c>
       <c r="H203">
-        <v>290</v>
+        <v>38</v>
       </c>
       <c r="J203" s="1" t="s">
         <v>363</v>
@@ -13193,25 +13193,25 @@
         <v>209</v>
       </c>
       <c r="B204">
-        <v>0.002043484004466424</v>
+        <v>0.002075135574793737</v>
       </c>
       <c r="C204">
         <v>1</v>
       </c>
       <c r="D204">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="E204">
-        <v>0.8</v>
+        <v>0.88</v>
       </c>
       <c r="F204">
-        <v>0.2</v>
+        <v>0.12</v>
       </c>
       <c r="G204" t="b">
         <v>1</v>
       </c>
       <c r="H204">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="J204" s="1" t="s">
         <v>364</v>
@@ -13243,25 +13243,25 @@
         <v>210</v>
       </c>
       <c r="B205">
-        <v>0.002043484004466424</v>
+        <v>0.002075135574793737</v>
       </c>
       <c r="C205">
         <v>1</v>
       </c>
       <c r="D205">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E205">
-        <v>0.8</v>
+        <v>0.5</v>
       </c>
       <c r="F205">
-        <v>0.2</v>
+        <v>0.5</v>
       </c>
       <c r="G205" t="b">
         <v>1</v>
       </c>
       <c r="H205">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="J205" s="1" t="s">
         <v>365</v>
@@ -13293,25 +13293,25 @@
         <v>211</v>
       </c>
       <c r="B206">
-        <v>0.002043484004466424</v>
+        <v>0.002075135574793737</v>
       </c>
       <c r="C206">
         <v>1</v>
       </c>
       <c r="D206">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="E206">
-        <v>0.88</v>
+        <v>0.75</v>
       </c>
       <c r="F206">
-        <v>0.12</v>
+        <v>0.25</v>
       </c>
       <c r="G206" t="b">
         <v>1</v>
       </c>
       <c r="H206">
-        <v>19</v>
+        <v>46</v>
       </c>
       <c r="J206" s="1" t="s">
         <v>366</v>
@@ -13343,28 +13343,28 @@
         <v>212</v>
       </c>
       <c r="B207">
-        <v>0.002043484004466424</v>
+        <v>0.002075135574793737</v>
       </c>
       <c r="C207">
         <v>1</v>
       </c>
       <c r="D207">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E207">
-        <v>0.5</v>
+        <v>0.67</v>
       </c>
       <c r="F207">
-        <v>0.5</v>
+        <v>0.33</v>
       </c>
       <c r="G207" t="b">
         <v>1</v>
       </c>
       <c r="H207">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="J207" s="1" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="K207">
         <v>0.00114176068180875</v>
@@ -13393,7 +13393,7 @@
         <v>213</v>
       </c>
       <c r="B208">
-        <v>0.002043484004466424</v>
+        <v>0.002075135574793737</v>
       </c>
       <c r="C208">
         <v>1</v>
@@ -13411,7 +13411,7 @@
         <v>1</v>
       </c>
       <c r="H208">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="J208" s="1" t="s">
         <v>367</v>
@@ -13443,25 +13443,25 @@
         <v>214</v>
       </c>
       <c r="B209">
-        <v>0.002043484004466424</v>
+        <v>0.002075135574793737</v>
       </c>
       <c r="C209">
         <v>1</v>
       </c>
       <c r="D209">
-        <v>3</v>
+        <v>76</v>
       </c>
       <c r="E209">
-        <v>0.67</v>
+        <v>0.99</v>
       </c>
       <c r="F209">
-        <v>0.33</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="G209" t="b">
         <v>1</v>
       </c>
       <c r="H209">
-        <v>36</v>
+        <v>83</v>
       </c>
       <c r="J209" s="1" t="s">
         <v>368</v>
@@ -13493,25 +13493,25 @@
         <v>215</v>
       </c>
       <c r="B210">
-        <v>0.002043484004466424</v>
+        <v>0.002075135574793737</v>
       </c>
       <c r="C210">
         <v>1</v>
       </c>
       <c r="D210">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="E210">
-        <v>0.75</v>
+        <v>0.86</v>
       </c>
       <c r="F210">
-        <v>0.25</v>
+        <v>0.14</v>
       </c>
       <c r="G210" t="b">
         <v>1</v>
       </c>
       <c r="H210">
-        <v>44</v>
+        <v>19</v>
       </c>
       <c r="J210" s="1" t="s">
         <v>369</v>
@@ -13543,25 +13543,25 @@
         <v>216</v>
       </c>
       <c r="B211">
-        <v>0.002043484004466424</v>
+        <v>0.002075135574793737</v>
       </c>
       <c r="C211">
         <v>1</v>
       </c>
       <c r="D211">
-        <v>76</v>
+        <v>6</v>
       </c>
       <c r="E211">
-        <v>0.99</v>
+        <v>0.83</v>
       </c>
       <c r="F211">
-        <v>0.01000000000000001</v>
+        <v>0.17</v>
       </c>
       <c r="G211" t="b">
         <v>1</v>
       </c>
       <c r="H211">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="J211" s="1" t="s">
         <v>370</v>
@@ -13593,25 +13593,25 @@
         <v>217</v>
       </c>
       <c r="B212">
-        <v>0.002043484004466424</v>
+        <v>0.002075135574793737</v>
       </c>
       <c r="C212">
         <v>1</v>
       </c>
       <c r="D212">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="E212">
-        <v>0.86</v>
+        <v>0.9</v>
       </c>
       <c r="F212">
-        <v>0.14</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="G212" t="b">
         <v>1</v>
       </c>
       <c r="H212">
-        <v>19</v>
+        <v>40</v>
       </c>
       <c r="J212" s="1" t="s">
         <v>371</v>
@@ -13643,25 +13643,25 @@
         <v>218</v>
       </c>
       <c r="B213">
-        <v>0.002043484004466424</v>
+        <v>0.002075135574793737</v>
       </c>
       <c r="C213">
         <v>1</v>
       </c>
       <c r="D213">
-        <v>6</v>
+        <v>115</v>
       </c>
       <c r="E213">
-        <v>0.83</v>
+        <v>0.99</v>
       </c>
       <c r="F213">
-        <v>0.17</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="G213" t="b">
         <v>1</v>
       </c>
       <c r="H213">
-        <v>80</v>
+        <v>13</v>
       </c>
       <c r="J213" s="1" t="s">
         <v>372</v>
@@ -13693,25 +13693,25 @@
         <v>219</v>
       </c>
       <c r="B214">
-        <v>0.002043484004466424</v>
+        <v>0.002075135574793737</v>
       </c>
       <c r="C214">
         <v>1</v>
       </c>
       <c r="D214">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="E214">
-        <v>0.9</v>
+        <v>0.95</v>
       </c>
       <c r="F214">
-        <v>0.09999999999999998</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="G214" t="b">
         <v>1</v>
       </c>
       <c r="H214">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="J214" s="1" t="s">
         <v>373</v>
@@ -13743,25 +13743,25 @@
         <v>220</v>
       </c>
       <c r="B215">
-        <v>0.002043484004466424</v>
+        <v>0.002075135574793737</v>
       </c>
       <c r="C215">
         <v>1</v>
       </c>
       <c r="D215">
-        <v>115</v>
+        <v>13</v>
       </c>
       <c r="E215">
-        <v>0.99</v>
+        <v>0.92</v>
       </c>
       <c r="F215">
-        <v>0.01000000000000001</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="G215" t="b">
         <v>1</v>
       </c>
       <c r="H215">
-        <v>13</v>
+        <v>72</v>
       </c>
       <c r="J215" s="1" t="s">
         <v>374</v>
@@ -13793,25 +13793,25 @@
         <v>221</v>
       </c>
       <c r="B216">
-        <v>0.002043484004466424</v>
+        <v>0.002075135574793737</v>
       </c>
       <c r="C216">
         <v>1</v>
       </c>
       <c r="D216">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="E216">
-        <v>0.95</v>
+        <v>0.93</v>
       </c>
       <c r="F216">
-        <v>0.05000000000000004</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="G216" t="b">
         <v>1</v>
       </c>
       <c r="H216">
-        <v>27</v>
+        <v>49</v>
       </c>
       <c r="J216" s="1" t="s">
         <v>375</v>
@@ -13843,25 +13843,25 @@
         <v>222</v>
       </c>
       <c r="B217">
-        <v>0.002043484004466424</v>
+        <v>0.002075135574793737</v>
       </c>
       <c r="C217">
         <v>1</v>
       </c>
       <c r="D217">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="E217">
-        <v>0.92</v>
+        <v>0.83</v>
       </c>
       <c r="F217">
-        <v>0.07999999999999996</v>
+        <v>0.17</v>
       </c>
       <c r="G217" t="b">
         <v>1</v>
       </c>
       <c r="H217">
-        <v>72</v>
+        <v>50</v>
       </c>
       <c r="J217" s="1" t="s">
         <v>376</v>
@@ -13893,25 +13893,25 @@
         <v>223</v>
       </c>
       <c r="B218">
-        <v>0.002043484004466424</v>
+        <v>0.002075135574793737</v>
       </c>
       <c r="C218">
         <v>1</v>
       </c>
       <c r="D218">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="E218">
-        <v>0.93</v>
+        <v>0.91</v>
       </c>
       <c r="F218">
-        <v>0.06999999999999995</v>
+        <v>0.08999999999999997</v>
       </c>
       <c r="G218" t="b">
         <v>1</v>
       </c>
       <c r="H218">
-        <v>49</v>
+        <v>25</v>
       </c>
       <c r="J218" s="1" t="s">
         <v>377</v>
@@ -13943,25 +13943,25 @@
         <v>224</v>
       </c>
       <c r="B219">
-        <v>0.002043484004466424</v>
+        <v>0.002075135574793737</v>
       </c>
       <c r="C219">
         <v>1</v>
       </c>
       <c r="D219">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="E219">
-        <v>0.83</v>
+        <v>0.93</v>
       </c>
       <c r="F219">
-        <v>0.17</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="G219" t="b">
         <v>1</v>
       </c>
       <c r="H219">
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="J219" s="1" t="s">
         <v>378</v>
@@ -13993,25 +13993,25 @@
         <v>225</v>
       </c>
       <c r="B220">
-        <v>0.002043484004466424</v>
+        <v>0.002075135574793737</v>
       </c>
       <c r="C220">
         <v>1</v>
       </c>
       <c r="D220">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="E220">
-        <v>0.91</v>
+        <v>0.83</v>
       </c>
       <c r="F220">
-        <v>0.08999999999999997</v>
+        <v>0.17</v>
       </c>
       <c r="G220" t="b">
         <v>1</v>
       </c>
       <c r="H220">
-        <v>25</v>
+        <v>165</v>
       </c>
       <c r="J220" s="1" t="s">
         <v>379</v>
@@ -14043,25 +14043,25 @@
         <v>226</v>
       </c>
       <c r="B221">
-        <v>0.002043484004466424</v>
+        <v>0.002075135574793737</v>
       </c>
       <c r="C221">
         <v>1</v>
       </c>
       <c r="D221">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E221">
-        <v>0.93</v>
+        <v>0.92</v>
       </c>
       <c r="F221">
-        <v>0.06999999999999995</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="G221" t="b">
         <v>1</v>
       </c>
       <c r="H221">
-        <v>58</v>
+        <v>37</v>
       </c>
       <c r="J221" s="1" t="s">
         <v>380</v>
@@ -14093,25 +14093,25 @@
         <v>227</v>
       </c>
       <c r="B222">
-        <v>0.002043484004466424</v>
+        <v>0.002075135574793737</v>
       </c>
       <c r="C222">
         <v>1</v>
       </c>
       <c r="D222">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E222">
-        <v>0.83</v>
+        <v>0.75</v>
       </c>
       <c r="F222">
-        <v>0.17</v>
+        <v>0.25</v>
       </c>
       <c r="G222" t="b">
         <v>1</v>
       </c>
       <c r="H222">
-        <v>165</v>
+        <v>91</v>
       </c>
       <c r="J222" s="1" t="s">
         <v>381</v>
@@ -14143,25 +14143,25 @@
         <v>228</v>
       </c>
       <c r="B223">
-        <v>0.002043484004466424</v>
+        <v>0.002075135574793737</v>
       </c>
       <c r="C223">
         <v>1</v>
       </c>
       <c r="D223">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="E223">
-        <v>0.92</v>
+        <v>0.75</v>
       </c>
       <c r="F223">
-        <v>0.07999999999999996</v>
+        <v>0.25</v>
       </c>
       <c r="G223" t="b">
         <v>1</v>
       </c>
       <c r="H223">
-        <v>37</v>
+        <v>96</v>
       </c>
       <c r="J223" s="1" t="s">
         <v>382</v>
@@ -14193,25 +14193,25 @@
         <v>229</v>
       </c>
       <c r="B224">
-        <v>0.002043484004466424</v>
+        <v>0.002075135574793737</v>
       </c>
       <c r="C224">
         <v>1</v>
       </c>
       <c r="D224">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E224">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="F224">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="G224" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H224">
-        <v>91</v>
+        <v>75</v>
       </c>
       <c r="J224" s="1" t="s">
         <v>383</v>
@@ -14243,25 +14243,25 @@
         <v>230</v>
       </c>
       <c r="B225">
-        <v>0.002043484004466424</v>
+        <v>0.002075135574793737</v>
       </c>
       <c r="C225">
         <v>1</v>
       </c>
       <c r="D225">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="E225">
-        <v>0.75</v>
+        <v>0.89</v>
       </c>
       <c r="F225">
-        <v>0.25</v>
+        <v>0.11</v>
       </c>
       <c r="G225" t="b">
         <v>1</v>
       </c>
       <c r="H225">
-        <v>96</v>
+        <v>49</v>
       </c>
       <c r="J225" s="1" t="s">
         <v>384</v>
@@ -14293,25 +14293,25 @@
         <v>231</v>
       </c>
       <c r="B226">
-        <v>0.002043484004466424</v>
+        <v>0.002075135574793737</v>
       </c>
       <c r="C226">
         <v>1</v>
       </c>
       <c r="D226">
-        <v>1</v>
+        <v>23</v>
       </c>
       <c r="E226">
-        <v>0</v>
+        <v>0.96</v>
       </c>
       <c r="F226">
-        <v>1</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="G226" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H226">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="J226" s="1" t="s">
         <v>385</v>
@@ -14343,25 +14343,25 @@
         <v>232</v>
       </c>
       <c r="B227">
-        <v>0.002043484004466424</v>
+        <v>0.002075135574793737</v>
       </c>
       <c r="C227">
         <v>1</v>
       </c>
       <c r="D227">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="E227">
-        <v>0.89</v>
+        <v>0.95</v>
       </c>
       <c r="F227">
-        <v>0.11</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="G227" t="b">
         <v>1</v>
       </c>
       <c r="H227">
-        <v>49</v>
+        <v>21</v>
       </c>
       <c r="J227" s="1" t="s">
         <v>386</v>
@@ -14393,25 +14393,25 @@
         <v>233</v>
       </c>
       <c r="B228">
-        <v>0.002043484004466424</v>
+        <v>0.002075135574793737</v>
       </c>
       <c r="C228">
         <v>1</v>
       </c>
       <c r="D228">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="E228">
-        <v>0.96</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F228">
-        <v>0.04000000000000004</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G228" t="b">
         <v>1</v>
       </c>
       <c r="H228">
-        <v>38</v>
+        <v>111</v>
       </c>
       <c r="J228" s="1" t="s">
         <v>387</v>
@@ -14443,28 +14443,28 @@
         <v>234</v>
       </c>
       <c r="B229">
-        <v>0.002043484004466424</v>
+        <v>0.002075135574793737</v>
       </c>
       <c r="C229">
         <v>1</v>
       </c>
       <c r="D229">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="E229">
-        <v>0.95</v>
+        <v>0.92</v>
       </c>
       <c r="F229">
-        <v>0.05000000000000004</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="G229" t="b">
         <v>1</v>
       </c>
       <c r="H229">
-        <v>21</v>
+        <v>77</v>
       </c>
       <c r="J229" s="1" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="K229">
         <v>0.00114176068180875</v>
@@ -14493,25 +14493,25 @@
         <v>235</v>
       </c>
       <c r="B230">
-        <v>0.002043484004466424</v>
+        <v>0.002075135574793737</v>
       </c>
       <c r="C230">
         <v>1</v>
       </c>
       <c r="D230">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="E230">
-        <v>0.9399999999999999</v>
+        <v>0.91</v>
       </c>
       <c r="F230">
-        <v>0.06000000000000005</v>
+        <v>0.08999999999999997</v>
       </c>
       <c r="G230" t="b">
         <v>1</v>
       </c>
       <c r="H230">
-        <v>111</v>
+        <v>127</v>
       </c>
       <c r="J230" s="1" t="s">
         <v>388</v>
@@ -14543,25 +14543,25 @@
         <v>236</v>
       </c>
       <c r="B231">
-        <v>0.002043484004466424</v>
+        <v>0.002075135574793737</v>
       </c>
       <c r="C231">
         <v>1</v>
       </c>
       <c r="D231">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="E231">
-        <v>0.92</v>
+        <v>0.96</v>
       </c>
       <c r="F231">
-        <v>0.07999999999999996</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="G231" t="b">
         <v>1</v>
       </c>
       <c r="H231">
-        <v>77</v>
+        <v>107</v>
       </c>
       <c r="J231" s="1" t="s">
         <v>389</v>
@@ -14593,25 +14593,25 @@
         <v>237</v>
       </c>
       <c r="B232">
-        <v>0.002043484004466424</v>
+        <v>0.002075135574793737</v>
       </c>
       <c r="C232">
         <v>1</v>
       </c>
       <c r="D232">
-        <v>11</v>
+        <v>52</v>
       </c>
       <c r="E232">
-        <v>0.91</v>
+        <v>0.98</v>
       </c>
       <c r="F232">
-        <v>0.08999999999999997</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="G232" t="b">
         <v>1</v>
       </c>
       <c r="H232">
-        <v>127</v>
+        <v>113</v>
       </c>
       <c r="J232" s="1" t="s">
         <v>390</v>
@@ -14643,25 +14643,25 @@
         <v>238</v>
       </c>
       <c r="B233">
-        <v>0.002043484004466424</v>
+        <v>0.002075135574793737</v>
       </c>
       <c r="C233">
         <v>1</v>
       </c>
       <c r="D233">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="E233">
-        <v>0.96</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F233">
-        <v>0.04000000000000004</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G233" t="b">
         <v>1</v>
       </c>
       <c r="H233">
-        <v>107</v>
+        <v>29</v>
       </c>
       <c r="J233" s="1" t="s">
         <v>391</v>
@@ -14693,7 +14693,7 @@
         <v>239</v>
       </c>
       <c r="B234">
-        <v>0.002043484004466424</v>
+        <v>0.002075135574793737</v>
       </c>
       <c r="C234">
         <v>1</v>
@@ -14711,7 +14711,7 @@
         <v>1</v>
       </c>
       <c r="H234">
-        <v>113</v>
+        <v>7</v>
       </c>
       <c r="J234" s="1" t="s">
         <v>392</v>
@@ -14743,25 +14743,25 @@
         <v>240</v>
       </c>
       <c r="B235">
-        <v>0.002043484004466424</v>
+        <v>0.002075135574793737</v>
       </c>
       <c r="C235">
         <v>1</v>
       </c>
       <c r="D235">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="E235">
-        <v>0.9399999999999999</v>
+        <v>0.97</v>
       </c>
       <c r="F235">
-        <v>0.06000000000000005</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="G235" t="b">
         <v>1</v>
       </c>
       <c r="H235">
-        <v>29</v>
+        <v>50</v>
       </c>
       <c r="J235" s="1" t="s">
         <v>393</v>
@@ -14793,25 +14793,25 @@
         <v>241</v>
       </c>
       <c r="B236">
-        <v>0.002043484004466424</v>
+        <v>0.002075135574793737</v>
       </c>
       <c r="C236">
         <v>1</v>
       </c>
       <c r="D236">
-        <v>52</v>
+        <v>32</v>
       </c>
       <c r="E236">
-        <v>0.98</v>
+        <v>0.97</v>
       </c>
       <c r="F236">
-        <v>0.02000000000000002</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="G236" t="b">
         <v>1</v>
       </c>
       <c r="H236">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="J236" s="1" t="s">
         <v>394</v>
@@ -14843,28 +14843,28 @@
         <v>242</v>
       </c>
       <c r="B237">
-        <v>0.002043484004466424</v>
+        <v>0.002075135574793737</v>
       </c>
       <c r="C237">
         <v>1</v>
       </c>
       <c r="D237">
-        <v>32</v>
+        <v>64</v>
       </c>
       <c r="E237">
-        <v>0.97</v>
+        <v>0.98</v>
       </c>
       <c r="F237">
-        <v>0.03000000000000003</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="G237" t="b">
         <v>1</v>
       </c>
       <c r="H237">
-        <v>50</v>
+        <v>166</v>
       </c>
       <c r="J237" s="1" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="K237">
         <v>0.00114176068180875</v>
@@ -14893,25 +14893,25 @@
         <v>243</v>
       </c>
       <c r="B238">
-        <v>0.002043484004466424</v>
+        <v>0.002075135574793737</v>
       </c>
       <c r="C238">
         <v>1</v>
       </c>
       <c r="D238">
-        <v>32</v>
+        <v>121</v>
       </c>
       <c r="E238">
-        <v>0.97</v>
+        <v>0.99</v>
       </c>
       <c r="F238">
-        <v>0.03000000000000003</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="G238" t="b">
         <v>1</v>
       </c>
       <c r="H238">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="J238" s="1" t="s">
         <v>395</v>
@@ -14943,25 +14943,25 @@
         <v>244</v>
       </c>
       <c r="B239">
-        <v>0.002043484004466424</v>
+        <v>0.002075135574793737</v>
       </c>
       <c r="C239">
         <v>1</v>
       </c>
       <c r="D239">
-        <v>64</v>
+        <v>5</v>
       </c>
       <c r="E239">
-        <v>0.98</v>
+        <v>0.8</v>
       </c>
       <c r="F239">
-        <v>0.02000000000000002</v>
+        <v>0.2</v>
       </c>
       <c r="G239" t="b">
         <v>1</v>
       </c>
       <c r="H239">
-        <v>166</v>
+        <v>11</v>
       </c>
       <c r="J239" s="1" t="s">
         <v>396</v>
@@ -14993,28 +14993,28 @@
         <v>245</v>
       </c>
       <c r="B240">
-        <v>0.002043484004466424</v>
+        <v>0.002075135574793737</v>
       </c>
       <c r="C240">
         <v>1</v>
       </c>
       <c r="D240">
-        <v>121</v>
+        <v>1</v>
       </c>
       <c r="E240">
-        <v>0.99</v>
+        <v>0</v>
       </c>
       <c r="F240">
-        <v>0.01000000000000001</v>
+        <v>1</v>
       </c>
       <c r="G240" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H240">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="J240" s="1" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="K240">
         <v>0.00114176068180875</v>
@@ -15043,25 +15043,25 @@
         <v>246</v>
       </c>
       <c r="B241">
-        <v>0.002043484004466424</v>
+        <v>0.002075135574793737</v>
       </c>
       <c r="C241">
         <v>1</v>
       </c>
       <c r="D241">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E241">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="F241">
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="G241" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H241">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="J241" s="1" t="s">
         <v>397</v>
@@ -15093,7 +15093,7 @@
         <v>247</v>
       </c>
       <c r="B242">
-        <v>0.002043484004466424</v>
+        <v>0.002075135574793737</v>
       </c>
       <c r="C242">
         <v>1</v>
@@ -15111,7 +15111,7 @@
         <v>0</v>
       </c>
       <c r="H242">
-        <v>38</v>
+        <v>6</v>
       </c>
       <c r="J242" s="1" t="s">
         <v>398</v>
@@ -15143,7 +15143,7 @@
         <v>248</v>
       </c>
       <c r="B243">
-        <v>0.002043484004466424</v>
+        <v>0.002075135574793737</v>
       </c>
       <c r="C243">
         <v>1</v>
@@ -15161,7 +15161,7 @@
         <v>0</v>
       </c>
       <c r="H243">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="J243" s="1" t="s">
         <v>399</v>
@@ -15193,7 +15193,7 @@
         <v>249</v>
       </c>
       <c r="B244">
-        <v>0.002043484004466424</v>
+        <v>0.002075135574793737</v>
       </c>
       <c r="C244">
         <v>1</v>
@@ -15211,7 +15211,7 @@
         <v>0</v>
       </c>
       <c r="H244">
-        <v>6</v>
+        <v>22</v>
       </c>
       <c r="J244" s="1" t="s">
         <v>400</v>
@@ -15243,7 +15243,7 @@
         <v>250</v>
       </c>
       <c r="B245">
-        <v>0.002043484004466424</v>
+        <v>0.002075135574793737</v>
       </c>
       <c r="C245">
         <v>1</v>
@@ -15261,7 +15261,7 @@
         <v>0</v>
       </c>
       <c r="H245">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="J245" s="1" t="s">
         <v>401</v>
@@ -15293,7 +15293,7 @@
         <v>251</v>
       </c>
       <c r="B246">
-        <v>0.002043484004466424</v>
+        <v>0.002075135574793737</v>
       </c>
       <c r="C246">
         <v>1</v>
@@ -15311,7 +15311,7 @@
         <v>0</v>
       </c>
       <c r="H246">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="J246" s="1" t="s">
         <v>402</v>
@@ -15343,7 +15343,7 @@
         <v>252</v>
       </c>
       <c r="B247">
-        <v>0.002043484004466424</v>
+        <v>0.002075135574793737</v>
       </c>
       <c r="C247">
         <v>1</v>
@@ -15361,7 +15361,7 @@
         <v>0</v>
       </c>
       <c r="H247">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="J247" s="1" t="s">
         <v>403</v>
@@ -15393,7 +15393,7 @@
         <v>253</v>
       </c>
       <c r="B248">
-        <v>0.002043484004466424</v>
+        <v>0.002075135574793737</v>
       </c>
       <c r="C248">
         <v>1</v>
@@ -15411,7 +15411,7 @@
         <v>0</v>
       </c>
       <c r="H248">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="J248" s="1" t="s">
         <v>404</v>
@@ -15443,7 +15443,7 @@
         <v>254</v>
       </c>
       <c r="B249">
-        <v>0.002043484004466424</v>
+        <v>0.002075135574793737</v>
       </c>
       <c r="C249">
         <v>1</v>
@@ -15461,7 +15461,7 @@
         <v>0</v>
       </c>
       <c r="H249">
-        <v>8</v>
+        <v>26</v>
       </c>
       <c r="J249" s="1" t="s">
         <v>405</v>
@@ -15493,25 +15493,25 @@
         <v>255</v>
       </c>
       <c r="B250">
-        <v>0.002043484004466424</v>
+        <v>0.002075135574793737</v>
       </c>
       <c r="C250">
         <v>1</v>
       </c>
       <c r="D250">
-        <v>1</v>
+        <v>37</v>
       </c>
       <c r="E250">
-        <v>0</v>
+        <v>0.97</v>
       </c>
       <c r="F250">
-        <v>1</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="G250" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H250">
-        <v>18</v>
+        <v>110</v>
       </c>
       <c r="J250" s="1" t="s">
         <v>406</v>
@@ -15543,28 +15543,28 @@
         <v>256</v>
       </c>
       <c r="B251">
-        <v>0.002043484004466424</v>
+        <v>0.002075135574793737</v>
       </c>
       <c r="C251">
         <v>1</v>
       </c>
       <c r="D251">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="E251">
-        <v>0</v>
+        <v>0.88</v>
       </c>
       <c r="F251">
-        <v>1</v>
+        <v>0.12</v>
       </c>
       <c r="G251" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H251">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="J251" s="1" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="K251">
         <v>0.0009887937554886185</v>
@@ -15593,25 +15593,25 @@
         <v>257</v>
       </c>
       <c r="B252">
-        <v>0.002043484004466424</v>
+        <v>0.002075135574793737</v>
       </c>
       <c r="C252">
         <v>1</v>
       </c>
       <c r="D252">
-        <v>37</v>
+        <v>13</v>
       </c>
       <c r="E252">
-        <v>0.97</v>
+        <v>0.92</v>
       </c>
       <c r="F252">
-        <v>0.03000000000000003</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="G252" t="b">
         <v>1</v>
       </c>
       <c r="H252">
-        <v>110</v>
+        <v>53</v>
       </c>
       <c r="J252" s="1" t="s">
         <v>407</v>
@@ -15643,25 +15643,25 @@
         <v>258</v>
       </c>
       <c r="B253">
-        <v>0.002043484004466424</v>
+        <v>0.002075135574793737</v>
       </c>
       <c r="C253">
         <v>1</v>
       </c>
       <c r="D253">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="E253">
-        <v>0.88</v>
+        <v>0.67</v>
       </c>
       <c r="F253">
-        <v>0.12</v>
+        <v>0.33</v>
       </c>
       <c r="G253" t="b">
         <v>1</v>
       </c>
       <c r="H253">
-        <v>20</v>
+        <v>98</v>
       </c>
       <c r="J253" s="1" t="s">
         <v>408</v>
@@ -15693,25 +15693,25 @@
         <v>259</v>
       </c>
       <c r="B254">
-        <v>0.002043484004466424</v>
+        <v>0.002075135574793737</v>
       </c>
       <c r="C254">
         <v>1</v>
       </c>
       <c r="D254">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="E254">
-        <v>0.92</v>
+        <v>0.5</v>
       </c>
       <c r="F254">
-        <v>0.07999999999999996</v>
+        <v>0.5</v>
       </c>
       <c r="G254" t="b">
         <v>1</v>
       </c>
       <c r="H254">
-        <v>53</v>
+        <v>99</v>
       </c>
       <c r="J254" s="1" t="s">
         <v>409</v>
@@ -15743,25 +15743,25 @@
         <v>260</v>
       </c>
       <c r="B255">
-        <v>0.002043484004466424</v>
+        <v>0.002075135574793737</v>
       </c>
       <c r="C255">
         <v>1</v>
       </c>
       <c r="D255">
-        <v>3</v>
+        <v>22</v>
       </c>
       <c r="E255">
-        <v>0.67</v>
+        <v>0.95</v>
       </c>
       <c r="F255">
-        <v>0.33</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="G255" t="b">
         <v>1</v>
       </c>
       <c r="H255">
-        <v>98</v>
+        <v>106</v>
       </c>
       <c r="J255" s="1" t="s">
         <v>410</v>
@@ -15793,25 +15793,25 @@
         <v>261</v>
       </c>
       <c r="B256">
-        <v>0.002043484004466424</v>
+        <v>0.002075135574793737</v>
       </c>
       <c r="C256">
         <v>1</v>
       </c>
       <c r="D256">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E256">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="F256">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G256" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H256">
-        <v>99</v>
+        <v>89</v>
       </c>
       <c r="J256" s="1" t="s">
         <v>411</v>
@@ -15843,25 +15843,25 @@
         <v>262</v>
       </c>
       <c r="B257">
-        <v>0.002043484004466424</v>
+        <v>0.002075135574793737</v>
       </c>
       <c r="C257">
         <v>1</v>
       </c>
       <c r="D257">
-        <v>22</v>
+        <v>1</v>
       </c>
       <c r="E257">
-        <v>0.95</v>
+        <v>0</v>
       </c>
       <c r="F257">
-        <v>0.05000000000000004</v>
+        <v>1</v>
       </c>
       <c r="G257" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H257">
-        <v>106</v>
+        <v>12</v>
       </c>
       <c r="J257" s="1" t="s">
         <v>412</v>
@@ -15893,7 +15893,7 @@
         <v>263</v>
       </c>
       <c r="B258">
-        <v>0.002043484004466424</v>
+        <v>0.002075135574793737</v>
       </c>
       <c r="C258">
         <v>1</v>
@@ -15911,7 +15911,7 @@
         <v>0</v>
       </c>
       <c r="H258">
-        <v>89</v>
+        <v>9</v>
       </c>
       <c r="J258" s="1" t="s">
         <v>413</v>
@@ -15943,7 +15943,7 @@
         <v>264</v>
       </c>
       <c r="B259">
-        <v>0.002043484004466424</v>
+        <v>0.002075135574793737</v>
       </c>
       <c r="C259">
         <v>1</v>
@@ -15961,7 +15961,7 @@
         <v>0</v>
       </c>
       <c r="H259">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="J259" s="1" t="s">
         <v>414</v>
@@ -15993,7 +15993,7 @@
         <v>265</v>
       </c>
       <c r="B260">
-        <v>0.002043484004466424</v>
+        <v>0.002075135574793737</v>
       </c>
       <c r="C260">
         <v>1</v>
@@ -16011,7 +16011,7 @@
         <v>0</v>
       </c>
       <c r="H260">
-        <v>9</v>
+        <v>54</v>
       </c>
       <c r="J260" s="1" t="s">
         <v>415</v>
@@ -16039,30 +16039,6 @@
       </c>
     </row>
     <row r="261" spans="1:17">
-      <c r="A261" s="1" t="s">
-        <v>266</v>
-      </c>
-      <c r="B261">
-        <v>0.002043484004466424</v>
-      </c>
-      <c r="C261">
-        <v>1</v>
-      </c>
-      <c r="D261">
-        <v>1</v>
-      </c>
-      <c r="E261">
-        <v>0</v>
-      </c>
-      <c r="F261">
-        <v>1</v>
-      </c>
-      <c r="G261" t="b">
-        <v>0</v>
-      </c>
-      <c r="H261">
-        <v>5</v>
-      </c>
       <c r="J261" s="1" t="s">
         <v>416</v>
       </c>
@@ -16089,32 +16065,8 @@
       </c>
     </row>
     <row r="262" spans="1:17">
-      <c r="A262" s="1" t="s">
-        <v>267</v>
-      </c>
-      <c r="B262">
-        <v>0.002043484004466424</v>
-      </c>
-      <c r="C262">
-        <v>1</v>
-      </c>
-      <c r="D262">
-        <v>1</v>
-      </c>
-      <c r="E262">
-        <v>0</v>
-      </c>
-      <c r="F262">
-        <v>1</v>
-      </c>
-      <c r="G262" t="b">
-        <v>0</v>
-      </c>
-      <c r="H262">
-        <v>54</v>
-      </c>
       <c r="J262" s="1" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="K262">
         <v>0.0009887937554886185</v>
@@ -16140,7 +16092,7 @@
     </row>
     <row r="263" spans="1:17">
       <c r="J263" s="1" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="K263">
         <v>0.0009887937554886185</v>
@@ -16296,7 +16248,7 @@
     </row>
     <row r="269" spans="1:17">
       <c r="J269" s="1" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="K269">
         <v>0.0009887937554886185</v>
@@ -16348,7 +16300,7 @@
     </row>
     <row r="271" spans="1:17">
       <c r="J271" s="1" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="K271">
         <v>0.0009887937554886185</v>
@@ -16764,7 +16716,7 @@
     </row>
     <row r="287" spans="10:17">
       <c r="J287" s="1" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="K287">
         <v>0.0009887937554886185</v>
@@ -16842,7 +16794,7 @@
     </row>
     <row r="290" spans="10:17">
       <c r="J290" s="1" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="K290">
         <v>0.0009887937554886185</v>
@@ -16972,7 +16924,7 @@
     </row>
     <row r="295" spans="10:17">
       <c r="J295" s="1" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="K295">
         <v>0.0009887937554886185</v>
@@ -17128,7 +17080,7 @@
     </row>
     <row r="301" spans="10:17">
       <c r="J301" s="1" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="K301">
         <v>0.0009887937554886185</v>
@@ -17206,7 +17158,7 @@
     </row>
     <row r="304" spans="10:17">
       <c r="J304" s="1" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="K304">
         <v>0.0009887937554886185</v>
@@ -17414,7 +17366,7 @@
     </row>
     <row r="312" spans="10:17">
       <c r="J312" s="1" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="K312">
         <v>0.0009887937554886185</v>
@@ -17570,7 +17522,7 @@
     </row>
     <row r="318" spans="10:17">
       <c r="J318" s="1" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="K318">
         <v>0.0009887937554886185</v>
@@ -18584,7 +18536,7 @@
     </row>
     <row r="357" spans="10:17">
       <c r="J357" s="1" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="K357">
         <v>0.000807346720599143</v>
@@ -19312,7 +19264,7 @@
     </row>
     <row r="385" spans="10:17">
       <c r="J385" s="1" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="K385">
         <v>0.000807346720599143</v>
@@ -19442,7 +19394,7 @@
     </row>
     <row r="390" spans="10:17">
       <c r="J390" s="1" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="K390">
         <v>0.000807346720599143</v>
@@ -19702,7 +19654,7 @@
     </row>
     <row r="400" spans="10:17">
       <c r="J400" s="1" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="K400">
         <v>0.000807346720599143</v>
@@ -20326,7 +20278,7 @@
     </row>
     <row r="424" spans="10:17">
       <c r="J424" s="1" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="K424">
         <v>0.000807346720599143</v>
@@ -20508,7 +20460,7 @@
     </row>
     <row r="431" spans="10:17">
       <c r="J431" s="1" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="K431">
         <v>0.000807346720599143</v>
@@ -20716,7 +20668,7 @@
     </row>
     <row r="439" spans="10:17">
       <c r="J439" s="1" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="K439">
         <v>0.000807346720599143</v>
@@ -21106,7 +21058,7 @@
     </row>
     <row r="454" spans="10:17">
       <c r="J454" s="1" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="K454">
         <v>0.0005708803409043749</v>
@@ -21522,7 +21474,7 @@
     </row>
     <row r="470" spans="10:17">
       <c r="J470" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K470">
         <v>0.0005708803409043749</v>
@@ -22328,7 +22280,7 @@
     </row>
     <row r="501" spans="10:17">
       <c r="J501" s="1" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="K501">
         <v>0.0005708803409043749</v>
@@ -22848,7 +22800,7 @@
     </row>
     <row r="521" spans="10:17">
       <c r="J521" s="1" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="K521">
         <v>0.0005708803409043749</v>
@@ -22952,7 +22904,7 @@
     </row>
     <row r="525" spans="10:17">
       <c r="J525" s="1" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="K525">
         <v>0.0005708803409043749</v>
@@ -23472,7 +23424,7 @@
     </row>
     <row r="545" spans="10:17">
       <c r="J545" s="1" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="K545">
         <v>0.0005708803409043749</v>
@@ -23810,7 +23762,7 @@
     </row>
     <row r="558" spans="10:17">
       <c r="J558" s="1" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="K558">
         <v>0.0005708803409043749</v>
@@ -23940,7 +23892,7 @@
     </row>
     <row r="563" spans="10:17">
       <c r="J563" s="1" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="K563">
         <v>0.0005708803409043749</v>
@@ -24174,7 +24126,7 @@
     </row>
     <row r="572" spans="10:17">
       <c r="J572" s="1" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="K572">
         <v>0.0005708803409043749</v>
@@ -24226,7 +24178,7 @@
     </row>
     <row r="574" spans="10:17">
       <c r="J574" s="1" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="K574">
         <v>0.0005708803409043749</v>
@@ -24720,7 +24672,7 @@
     </row>
     <row r="593" spans="10:17">
       <c r="J593" s="1" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="K593">
         <v>0.0005708803409043749</v>
@@ -25396,7 +25348,7 @@
     </row>
     <row r="619" spans="10:17">
       <c r="J619" s="1" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="K619">
         <v>0.0005708803409043749</v>
@@ -26852,7 +26804,7 @@
     </row>
     <row r="675" spans="10:17">
       <c r="J675" s="1" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="K675">
         <v>0.0005708803409043749</v>
@@ -26904,7 +26856,7 @@
     </row>
     <row r="677" spans="10:17">
       <c r="J677" s="1" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="K677">
         <v>0.0005708803409043749</v>
@@ -27320,7 +27272,7 @@
     </row>
     <row r="693" spans="10:17">
       <c r="J693" s="1" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="K693">
         <v>0.0005708803409043749</v>
@@ -27918,7 +27870,7 @@
     </row>
     <row r="716" spans="10:17">
       <c r="J716" s="1" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="K716">
         <v>0.0005708803409043749</v>
@@ -28542,7 +28494,7 @@
     </row>
     <row r="740" spans="10:17">
       <c r="J740" s="1" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="K740">
         <v>0.0005708803409043749</v>
